--- a/Statistical analyses/data/faeces_sample_database.xlsx
+++ b/Statistical analyses/data/faeces_sample_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dida_\Dropbox\How to paper\HowToMetabarcoding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/crinan_jarrett_vogelwarte_ch/Documents/Cocoa Lab/HowToMetabarcoding/Statistical analyses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDDAE22-CB89-4116-BFA6-953286DABB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3EDDAE22-CB89-4116-BFA6-953286DABB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008FF250-2B32-4C15-8698-ED4A3A6255E3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="71">
   <si>
     <t>animal</t>
   </si>
@@ -252,6 +252,9 @@
   <si>
     <t>ext mthd</t>
   </si>
+  <si>
+    <t>site</t>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +628,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,7 +686,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,231 +733,231 @@
     </xf>
   </cellXfs>
   <cellStyles count="227">
-    <cellStyle name="Hiperligação Visitada" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
   </cellStyles>
@@ -1071,6 +1074,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2154,27 +2161,27 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7265625" style="5" customWidth="1"/>
-    <col min="11" max="101" width="9.1796875" style="10" customWidth="1"/>
-    <col min="102" max="162" width="9.1796875" style="6" customWidth="1"/>
-    <col min="163" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="5" customWidth="1"/>
+    <col min="11" max="101" width="9.21875" style="10" customWidth="1"/>
+    <col min="102" max="162" width="9.21875" style="6" customWidth="1"/>
+    <col min="163" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" s="4" customFormat="1" ht="12.5" customHeight="1">
+    <row r="1" spans="1:166" s="4" customFormat="1" ht="12.45" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>54</v>
@@ -2206,7 +2213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:166" s="10" customFormat="1" ht="16" customHeight="1">
+    <row r="2" spans="1:166" s="10" customFormat="1" ht="16.05" customHeight="1">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -2394,7 +2401,7 @@
       <c r="FI2" s="9"/>
       <c r="FJ2" s="9"/>
     </row>
-    <row r="3" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="3" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -2520,7 +2527,7 @@
       <c r="CY3" s="6"/>
       <c r="CZ3" s="6"/>
     </row>
-    <row r="4" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="4" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A4" s="12">
         <v>6</v>
       </c>
@@ -2554,7 +2561,7 @@
       <c r="CY4" s="6"/>
       <c r="CZ4" s="6"/>
     </row>
-    <row r="5" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="5" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A5" s="12">
         <v>7</v>
       </c>
@@ -2586,7 +2593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A6" s="12">
         <v>8</v>
       </c>
@@ -2712,7 +2719,7 @@
       <c r="CY6" s="6"/>
       <c r="CZ6" s="6"/>
     </row>
-    <row r="7" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A7" s="12">
         <v>10</v>
       </c>
@@ -2835,7 +2842,7 @@
       <c r="CV7" s="8"/>
       <c r="CW7" s="8"/>
     </row>
-    <row r="8" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A8" s="12">
         <v>13</v>
       </c>
@@ -2961,7 +2968,7 @@
       <c r="CY8" s="6"/>
       <c r="CZ8" s="6"/>
     </row>
-    <row r="9" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A9" s="12">
         <v>14</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A10" s="12">
         <v>15</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A11" s="12">
         <v>16</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A12" s="12">
         <v>17</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A13" s="12">
         <v>18</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="14" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A14" s="12">
         <v>19</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A15" s="12">
         <v>20</v>
       </c>
@@ -3185,7 +3192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A16" s="12">
         <v>21</v>
       </c>
@@ -3219,7 +3226,7 @@
       <c r="CY16" s="6"/>
       <c r="CZ16" s="6"/>
     </row>
-    <row r="17" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A17" s="12">
         <v>22</v>
       </c>
@@ -3345,7 +3352,7 @@
       <c r="CY17" s="6"/>
       <c r="CZ17" s="6"/>
     </row>
-    <row r="18" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A18" s="12">
         <v>23</v>
       </c>
@@ -3379,7 +3386,7 @@
       <c r="CY18" s="6"/>
       <c r="CZ18" s="6"/>
     </row>
-    <row r="19" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A19" s="12">
         <v>24</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="20" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A20" s="12">
         <v>25</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="21" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A21" s="12">
         <v>26</v>
       </c>
@@ -3475,7 +3482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="22" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A22" s="12">
         <v>27</v>
       </c>
@@ -3507,7 +3514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="23" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="24" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A24" s="12">
         <v>29</v>
       </c>
@@ -3571,7 +3578,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="25" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A25" s="12">
         <v>30</v>
       </c>
@@ -3603,7 +3610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="26" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A26" s="12">
         <v>31</v>
       </c>
@@ -3635,7 +3642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="27" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A27" s="12">
         <v>32</v>
       </c>
@@ -3669,7 +3676,7 @@
       <c r="CY27" s="6"/>
       <c r="CZ27" s="6"/>
     </row>
-    <row r="28" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="28" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A28" s="12">
         <v>33</v>
       </c>
@@ -3703,7 +3710,7 @@
       <c r="CY28" s="6"/>
       <c r="CZ28" s="6"/>
     </row>
-    <row r="29" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="29" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A29" s="12">
         <v>34</v>
       </c>
@@ -3737,7 +3744,7 @@
       <c r="CY29" s="6"/>
       <c r="CZ29" s="6"/>
     </row>
-    <row r="30" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="30" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A30" s="12">
         <v>35</v>
       </c>
@@ -3769,7 +3776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="31" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A31" s="12">
         <v>37</v>
       </c>
@@ -3801,7 +3808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="32" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A32" s="12">
         <v>38</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="33" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A33" s="12">
         <v>39</v>
       </c>
@@ -3959,7 +3966,7 @@
       <c r="CY33" s="6"/>
       <c r="CZ33" s="6"/>
     </row>
-    <row r="34" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="34" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A34" s="12">
         <v>40</v>
       </c>
@@ -4085,7 +4092,7 @@
       <c r="CY34" s="6"/>
       <c r="CZ34" s="6"/>
     </row>
-    <row r="35" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="35" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A35" s="12">
         <v>42</v>
       </c>
@@ -4183,7 +4190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="38" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A38" s="12">
         <v>45</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="39" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A39" s="12">
         <v>46</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="40" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A40" s="12">
         <v>47</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="41" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A41" s="12">
         <v>48</v>
       </c>
@@ -4311,7 +4318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="42" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A42" s="12">
         <v>49</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="43" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A43" s="12">
         <v>52</v>
       </c>
@@ -4377,7 +4384,7 @@
       <c r="CY43" s="6"/>
       <c r="CZ43" s="6"/>
     </row>
-    <row r="44" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="44" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A44" s="12">
         <v>53</v>
       </c>
@@ -4409,7 +4416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="45" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A45" s="12">
         <v>54</v>
       </c>
@@ -4441,7 +4448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="46" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A46" s="12">
         <v>55</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="47" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A47" s="12">
         <v>57</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="48" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A48" s="12">
         <v>58</v>
       </c>
@@ -4537,7 +4544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="49" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A49" s="12">
         <v>59</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="50" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A50" s="12">
         <v>60</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="51" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A51" s="12">
         <v>61</v>
       </c>
@@ -4633,7 +4640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="52" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A52" s="12">
         <v>62</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="53" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A53" s="12">
         <v>63</v>
       </c>
@@ -4697,7 +4704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="54" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A54" s="12">
         <v>64</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="55" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A55" s="12">
         <v>65</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="56" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A56" s="12">
         <v>66</v>
       </c>
@@ -4793,7 +4800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="57" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A57" s="12">
         <v>67</v>
       </c>
@@ -4825,7 +4832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="58" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A58" s="12">
         <v>68</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="59" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A59" s="12">
         <v>69</v>
       </c>
@@ -4889,7 +4896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="60" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A60" s="12">
         <v>70</v>
       </c>
@@ -4921,7 +4928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="61" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A61" s="12">
         <v>71</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="62" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A62" s="12">
         <v>72</v>
       </c>
@@ -4987,7 +4994,7 @@
       <c r="CY62" s="6"/>
       <c r="CZ62" s="6"/>
     </row>
-    <row r="63" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="63" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A63" s="12">
         <v>73</v>
       </c>
@@ -5021,7 +5028,7 @@
       <c r="CY63" s="6"/>
       <c r="CZ63" s="6"/>
     </row>
-    <row r="64" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="64" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A64" s="12">
         <v>74</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="65" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A65" s="12">
         <v>75</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="66" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A66" s="12">
         <v>76</v>
       </c>
@@ -5117,7 +5124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="67" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A67" s="12">
         <v>78</v>
       </c>
@@ -5149,7 +5156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="68" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A68" s="12">
         <v>79</v>
       </c>
@@ -5181,7 +5188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="69" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A69" s="12">
         <v>80</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="70" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A70" s="12">
         <v>81</v>
       </c>
@@ -5245,7 +5252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="71" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A71" s="12">
         <v>82</v>
       </c>
@@ -5277,7 +5284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="72" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A72" s="12">
         <v>83</v>
       </c>
@@ -5309,7 +5316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="73" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A73" s="12">
         <v>84</v>
       </c>
@@ -5343,7 +5350,7 @@
       <c r="CY73" s="6"/>
       <c r="CZ73" s="6"/>
     </row>
-    <row r="74" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="74" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A74" s="12">
         <v>85</v>
       </c>
@@ -5375,7 +5382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="75" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A75" s="12">
         <v>87</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="76" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A76" s="12">
         <v>88</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="77" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A77" s="12">
         <v>89</v>
       </c>
@@ -5471,7 +5478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="78" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A78" s="12">
         <v>90</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="79" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A79" s="12">
         <v>91</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="80" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A80" s="12">
         <v>92</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="81" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A81" s="12">
         <v>93</v>
       </c>
@@ -5599,7 +5606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="82" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A82" s="12">
         <v>94</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="83" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A83" s="12">
         <v>95</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="84" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A84" s="12">
         <v>96</v>
       </c>
@@ -5695,7 +5702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="85" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A85" s="12">
         <v>97</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="86" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A86" s="12">
         <v>98</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="87" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A87" s="12">
         <v>99</v>
       </c>
@@ -5791,7 +5798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="88" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A88" s="12">
         <v>100</v>
       </c>
@@ -5823,7 +5830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="89" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A89" s="12">
         <v>101</v>
       </c>
@@ -5855,7 +5862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="90" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A90" s="12">
         <v>102</v>
       </c>
@@ -5891,7 +5898,7 @@
       <c r="FI90" s="10"/>
       <c r="FJ90" s="10"/>
     </row>
-    <row r="91" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="91" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A91" s="12">
         <v>103</v>
       </c>
@@ -5923,7 +5930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="92" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A92" s="12">
         <v>104</v>
       </c>
@@ -5955,7 +5962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="93" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A93" s="12">
         <v>105</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="94" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A94" s="12">
         <v>106</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="95" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A95" s="12">
         <v>107</v>
       </c>
@@ -6051,7 +6058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="96" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A96" s="12">
         <v>108</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="97" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A97" s="12">
         <v>111</v>
       </c>
@@ -6115,7 +6122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A98" s="12">
         <v>112</v>
       </c>
@@ -6147,7 +6154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="99" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A99" s="12">
         <v>113</v>
       </c>
@@ -6179,7 +6186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="100" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A100" s="12">
         <v>114</v>
       </c>
@@ -6211,7 +6218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A101" s="12">
         <v>115</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A102" s="12">
         <v>116</v>
       </c>
@@ -6275,7 +6282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A103" s="12">
         <v>117</v>
       </c>
@@ -6307,7 +6314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A104" s="12">
         <v>118</v>
       </c>
@@ -6339,7 +6346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A105" s="12">
         <v>119</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A106" s="12">
         <v>120</v>
       </c>
@@ -6403,7 +6410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="107" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A107" s="12">
         <v>121</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="108" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A108" s="12">
         <v>122</v>
       </c>
@@ -6467,7 +6474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="109" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A109" s="12">
         <v>123</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="110" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A110" s="12">
         <v>124</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="111" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A111" s="12">
         <v>125</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A112" s="12">
         <v>126</v>
       </c>
@@ -6595,7 +6602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="113" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A113" s="12">
         <v>127</v>
       </c>
@@ -6627,7 +6634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="114" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A114" s="12">
         <v>128</v>
       </c>
@@ -6659,7 +6666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="115" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A115" s="12">
         <v>129</v>
       </c>
@@ -6693,7 +6700,7 @@
       <c r="CY115" s="6"/>
       <c r="CZ115" s="6"/>
     </row>
-    <row r="116" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="116" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A116" s="12">
         <v>130</v>
       </c>
@@ -6727,7 +6734,7 @@
       <c r="CY116" s="6"/>
       <c r="CZ116" s="6"/>
     </row>
-    <row r="117" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="117" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A117" s="12">
         <v>131</v>
       </c>
@@ -6759,7 +6766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="118" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A118" s="12">
         <v>132</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="119" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A119" s="12">
         <v>133</v>
       </c>
@@ -6823,7 +6830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="120" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A120" s="12">
         <v>134</v>
       </c>
@@ -6949,7 +6956,7 @@
       <c r="CY120" s="6"/>
       <c r="CZ120" s="6"/>
     </row>
-    <row r="121" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="121" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A121" s="12">
         <v>135</v>
       </c>
@@ -7075,7 +7082,7 @@
       <c r="CY121" s="6"/>
       <c r="CZ121" s="6"/>
     </row>
-    <row r="122" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="122" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A122" s="12">
         <v>136</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="123" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A123" s="12">
         <v>137</v>
       </c>
@@ -7141,7 +7148,7 @@
       <c r="CY123" s="6"/>
       <c r="CZ123" s="6"/>
     </row>
-    <row r="124" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="124" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A124" s="12">
         <v>138</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="125" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A125" s="12">
         <v>139</v>
       </c>
@@ -7205,7 +7212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="126" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A126" s="12">
         <v>140</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="127" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A127" s="12">
         <v>141</v>
       </c>
@@ -7269,7 +7276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="128" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A128" s="12">
         <v>142</v>
       </c>
@@ -7301,7 +7308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="129" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A129" s="12">
         <v>143</v>
       </c>
@@ -7335,7 +7342,7 @@
       <c r="CY129" s="6"/>
       <c r="CZ129" s="6"/>
     </row>
-    <row r="130" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="130" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A130" s="12">
         <v>144</v>
       </c>
@@ -7367,7 +7374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="131" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A131" s="12">
         <v>145</v>
       </c>
@@ -7399,7 +7406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:104" s="5" customFormat="1" ht="16" customHeight="1">
+    <row r="132" spans="1:104" s="5" customFormat="1" ht="16.05" customHeight="1">
       <c r="A132" s="12">
         <v>146</v>
       </c>
@@ -7433,7 +7440,7 @@
       <c r="CY132" s="13"/>
       <c r="CZ132" s="13"/>
     </row>
-    <row r="133" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="133" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A133" s="12">
         <v>147</v>
       </c>
@@ -7465,7 +7472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="134" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A134" s="12">
         <v>148</v>
       </c>
@@ -7499,7 +7506,7 @@
       <c r="CY134" s="6"/>
       <c r="CZ134" s="6"/>
     </row>
-    <row r="135" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="135" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A135" s="12">
         <v>149</v>
       </c>
@@ -7531,7 +7538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="136" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A136" s="12">
         <v>150</v>
       </c>
@@ -7563,7 +7570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="137" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A137" s="12">
         <v>151</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="138" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A138" s="12">
         <v>152</v>
       </c>
@@ -7627,7 +7634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="139" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A139" s="12">
         <v>153</v>
       </c>
@@ -7751,7 +7758,7 @@
       <c r="CW139" s="10"/>
       <c r="CX139" s="10"/>
     </row>
-    <row r="140" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="140" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A140" s="12">
         <v>154</v>
       </c>
@@ -7783,7 +7790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="141" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A141" s="12">
         <v>155</v>
       </c>
@@ -7815,7 +7822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="142" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A142" s="12">
         <v>158</v>
       </c>
@@ -7847,7 +7854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="143" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A143" s="12">
         <v>159</v>
       </c>
@@ -7879,7 +7886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="144" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A144" s="12">
         <v>163</v>
       </c>
@@ -7911,7 +7918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="145" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A145" s="12">
         <v>164</v>
       </c>
@@ -7943,7 +7950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:166" s="31" customFormat="1" ht="16" customHeight="1">
+    <row r="146" spans="1:166" s="31" customFormat="1" ht="16.05" customHeight="1">
       <c r="A146" s="12">
         <v>166</v>
       </c>
@@ -8131,7 +8138,7 @@
       <c r="FI146" s="9"/>
       <c r="FJ146" s="9"/>
     </row>
-    <row r="147" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="147" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A147" s="12">
         <v>168</v>
       </c>
@@ -8165,7 +8172,7 @@
       <c r="CY147" s="6"/>
       <c r="CZ147" s="6"/>
     </row>
-    <row r="148" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="148" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A148" s="12">
         <v>169</v>
       </c>
@@ -8197,7 +8204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="149" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A149" s="12">
         <v>170</v>
       </c>
@@ -8229,7 +8236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="150" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A150" s="12">
         <v>171</v>
       </c>
@@ -8263,7 +8270,7 @@
       <c r="CY150" s="14"/>
       <c r="CZ150" s="14"/>
     </row>
-    <row r="151" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="151" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A151" s="12">
         <v>172</v>
       </c>
@@ -8295,7 +8302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="152" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A152" s="12">
         <v>173</v>
       </c>
@@ -8327,7 +8334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="153" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A153" s="12">
         <v>174</v>
       </c>
@@ -8359,7 +8366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="154" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A154" s="12">
         <v>175</v>
       </c>
@@ -8391,7 +8398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="155" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A155" s="12">
         <v>176</v>
       </c>
@@ -8517,7 +8524,7 @@
       <c r="CY155" s="6"/>
       <c r="CZ155" s="6"/>
     </row>
-    <row r="156" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="156" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A156" s="12">
         <v>177</v>
       </c>
@@ -8549,7 +8556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="157" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A157" s="12">
         <v>178</v>
       </c>
@@ -8581,7 +8588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="158" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A158" s="12">
         <v>180</v>
       </c>
@@ -8615,7 +8622,7 @@
       <c r="CY158" s="6"/>
       <c r="CZ158" s="6"/>
     </row>
-    <row r="159" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="159" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A159" s="12">
         <v>181</v>
       </c>
@@ -8647,7 +8654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="160" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A160" s="12">
         <v>182</v>
       </c>
@@ -8679,7 +8686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="161" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A161" s="12">
         <v>183</v>
       </c>
@@ -8711,7 +8718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="162" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A162" s="12">
         <v>184</v>
       </c>
@@ -8743,7 +8750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="163" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A163" s="12">
         <v>185</v>
       </c>
@@ -8777,7 +8784,7 @@
       <c r="CY163" s="6"/>
       <c r="CZ163" s="6"/>
     </row>
-    <row r="164" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="164" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A164" s="12">
         <v>186</v>
       </c>
@@ -8809,7 +8816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="165" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A165" s="12">
         <v>187</v>
       </c>
@@ -8841,7 +8848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="166" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A166" s="12">
         <v>188</v>
       </c>
@@ -8873,7 +8880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="167" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A167" s="12">
         <v>189</v>
       </c>
@@ -8905,7 +8912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="168" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A168" s="12">
         <v>190</v>
       </c>
@@ -8937,7 +8944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="169" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A169" s="12">
         <v>191</v>
       </c>
@@ -8969,7 +8976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="170" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A170" s="12">
         <v>192</v>
       </c>
@@ -9001,7 +9008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="171" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A171" s="12">
         <v>194</v>
       </c>
@@ -9127,7 +9134,7 @@
       <c r="CY171" s="6"/>
       <c r="CZ171" s="6"/>
     </row>
-    <row r="172" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="172" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A172" s="12">
         <v>195</v>
       </c>
@@ -9159,7 +9166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="173" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A173" s="12">
         <v>196</v>
       </c>
@@ -9191,7 +9198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="174" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A174" s="12">
         <v>197</v>
       </c>
@@ -9225,7 +9232,7 @@
       <c r="CY174" s="6"/>
       <c r="CZ174" s="6"/>
     </row>
-    <row r="175" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="175" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A175" s="12">
         <v>198</v>
       </c>
@@ -9257,7 +9264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="176" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A176" s="12">
         <v>200</v>
       </c>
@@ -9387,7 +9394,7 @@
       <c r="FI176" s="6"/>
       <c r="FJ176" s="6"/>
     </row>
-    <row r="177" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="177" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A177" s="12">
         <v>204</v>
       </c>
@@ -9513,7 +9520,7 @@
       <c r="CY177" s="6"/>
       <c r="CZ177" s="6"/>
     </row>
-    <row r="178" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="178" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A178" s="12">
         <v>205</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="179" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A179" s="12">
         <v>207</v>
       </c>
@@ -9577,7 +9584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="180" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A180" s="12">
         <v>209</v>
       </c>
@@ -9703,7 +9710,7 @@
       <c r="CY180" s="6"/>
       <c r="CZ180" s="6"/>
     </row>
-    <row r="181" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="181" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A181" s="12">
         <v>210</v>
       </c>
@@ -9829,7 +9836,7 @@
       <c r="CY181" s="6"/>
       <c r="CZ181" s="6"/>
     </row>
-    <row r="182" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="182" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A182" s="12">
         <v>211</v>
       </c>
@@ -9955,7 +9962,7 @@
       <c r="CY182" s="6"/>
       <c r="CZ182" s="6"/>
     </row>
-    <row r="183" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="183" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A183" s="12">
         <v>213</v>
       </c>
@@ -9987,7 +9994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="184" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A184" s="12">
         <v>214</v>
       </c>
@@ -10019,7 +10026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="185" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A185" s="12">
         <v>215</v>
       </c>
@@ -10145,7 +10152,7 @@
       <c r="CY185" s="6"/>
       <c r="CZ185" s="6"/>
     </row>
-    <row r="186" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="186" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A186" s="12">
         <v>217</v>
       </c>
@@ -10177,7 +10184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="187" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A187" s="12">
         <v>218</v>
       </c>
@@ -10303,7 +10310,7 @@
       <c r="CY187" s="6"/>
       <c r="CZ187" s="6"/>
     </row>
-    <row r="188" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="188" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A188" s="12">
         <v>219</v>
       </c>
@@ -10429,7 +10436,7 @@
       <c r="CY188" s="6"/>
       <c r="CZ188" s="6"/>
     </row>
-    <row r="189" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="189" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A189" s="12">
         <v>220</v>
       </c>
@@ -10463,7 +10470,7 @@
       <c r="CY189" s="6"/>
       <c r="CZ189" s="6"/>
     </row>
-    <row r="190" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="190" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A190" s="12">
         <v>223</v>
       </c>
@@ -10495,7 +10502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="191" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A191" s="12">
         <v>224</v>
       </c>
@@ -10527,7 +10534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="192" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A192" s="12">
         <v>225</v>
       </c>
@@ -10559,7 +10566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="193" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A193" s="12">
         <v>226</v>
       </c>
@@ -10591,7 +10598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="194" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A194" s="12">
         <v>227</v>
       </c>
@@ -10623,7 +10630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="195" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A195" s="12">
         <v>228</v>
       </c>
@@ -10655,7 +10662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="196" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A196" s="12">
         <v>229</v>
       </c>
@@ -10687,7 +10694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="197" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A197" s="12">
         <v>230</v>
       </c>
@@ -10719,7 +10726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="198" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A198" s="12">
         <v>231</v>
       </c>
@@ -10751,7 +10758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="199" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A199" s="12">
         <v>234</v>
       </c>
@@ -10783,7 +10790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="200" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A200" s="12">
         <v>235</v>
       </c>
@@ -10815,7 +10822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="201" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A201" s="12">
         <v>236</v>
       </c>
@@ -10847,7 +10854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="202" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A202" s="12">
         <v>237</v>
       </c>
@@ -10879,7 +10886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="203" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A203" s="12">
         <v>238</v>
       </c>
@@ -10911,7 +10918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="204" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A204" s="12">
         <v>239</v>
       </c>
@@ -10943,7 +10950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="205" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="205" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A205" s="12">
         <v>241</v>
       </c>
@@ -10975,7 +10982,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="206" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="206" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A206" s="12">
         <v>243</v>
       </c>
@@ -11007,7 +11014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="207" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A207" s="12">
         <v>244</v>
       </c>
@@ -11039,7 +11046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="208" spans="1:10" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A208" s="12">
         <v>245</v>
       </c>
@@ -11071,7 +11078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="209" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A209" s="12">
         <v>246</v>
       </c>
@@ -11103,7 +11110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="210" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A210" s="12">
         <v>250</v>
       </c>
@@ -11135,7 +11142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="211" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A211" s="12">
         <v>251</v>
       </c>
@@ -11323,7 +11330,7 @@
       <c r="FI211" s="17"/>
       <c r="FJ211" s="17"/>
     </row>
-    <row r="212" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="212" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A212" s="12">
         <v>252</v>
       </c>
@@ -11449,7 +11456,7 @@
       <c r="CY212" s="6"/>
       <c r="CZ212" s="6"/>
     </row>
-    <row r="213" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="213" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A213" s="12">
         <v>254</v>
       </c>
@@ -11575,7 +11582,7 @@
       <c r="CY213" s="6"/>
       <c r="CZ213" s="6"/>
     </row>
-    <row r="214" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="214" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A214" s="12">
         <v>258</v>
       </c>
@@ -11701,7 +11708,7 @@
       <c r="CY214" s="6"/>
       <c r="CZ214" s="6"/>
     </row>
-    <row r="215" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="215" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A215" s="12">
         <v>259</v>
       </c>
@@ -11827,7 +11834,7 @@
       <c r="CY215" s="6"/>
       <c r="CZ215" s="6"/>
     </row>
-    <row r="216" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="216" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A216" s="12">
         <v>260</v>
       </c>
@@ -11861,7 +11868,7 @@
       <c r="CY216" s="6"/>
       <c r="CZ216" s="6"/>
     </row>
-    <row r="217" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="217" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A217" s="12">
         <v>267</v>
       </c>
@@ -11895,7 +11902,7 @@
       <c r="CY217" s="6"/>
       <c r="CZ217" s="6"/>
     </row>
-    <row r="218" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="218" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A218" s="12">
         <v>268</v>
       </c>
@@ -11929,7 +11936,7 @@
       <c r="CY218" s="6"/>
       <c r="CZ218" s="6"/>
     </row>
-    <row r="219" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="219" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A219" s="12">
         <v>271</v>
       </c>
@@ -12055,7 +12062,7 @@
       <c r="CY219" s="6"/>
       <c r="CZ219" s="6"/>
     </row>
-    <row r="220" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="220" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A220" s="12">
         <v>272</v>
       </c>
@@ -12087,7 +12094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="221" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A221" s="12">
         <v>273</v>
       </c>
@@ -12213,7 +12220,7 @@
       <c r="CY221" s="6"/>
       <c r="CZ221" s="6"/>
     </row>
-    <row r="222" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="222" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A222" s="12">
         <v>274</v>
       </c>
@@ -12339,7 +12346,7 @@
       <c r="CY222" s="6"/>
       <c r="CZ222" s="6"/>
     </row>
-    <row r="223" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="223" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A223" s="12">
         <v>275</v>
       </c>
@@ -12465,7 +12472,7 @@
       <c r="CY223" s="6"/>
       <c r="CZ223" s="6"/>
     </row>
-    <row r="224" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="224" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A224" s="12">
         <v>276</v>
       </c>
@@ -12591,7 +12598,7 @@
       <c r="CY224" s="6"/>
       <c r="CZ224" s="6"/>
     </row>
-    <row r="225" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="225" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A225" s="12">
         <v>277</v>
       </c>
@@ -12716,7 +12723,7 @@
       <c r="CY225" s="6"/>
       <c r="CZ225" s="6"/>
     </row>
-    <row r="226" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="226" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A226" s="12">
         <v>278</v>
       </c>
@@ -12842,7 +12849,7 @@
       <c r="CY226" s="6"/>
       <c r="CZ226" s="6"/>
     </row>
-    <row r="227" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="227" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A227" s="12">
         <v>279</v>
       </c>
@@ -12968,7 +12975,7 @@
       <c r="CY227" s="6"/>
       <c r="CZ227" s="6"/>
     </row>
-    <row r="228" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="228" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A228" s="12">
         <v>280</v>
       </c>
@@ -13093,7 +13100,7 @@
       <c r="CY228" s="6"/>
       <c r="CZ228" s="6"/>
     </row>
-    <row r="229" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="229" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A229" s="12">
         <v>282</v>
       </c>
@@ -13219,7 +13226,7 @@
       <c r="CY229" s="6"/>
       <c r="CZ229" s="6"/>
     </row>
-    <row r="230" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="230" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A230" s="12">
         <v>283</v>
       </c>
@@ -13345,7 +13352,7 @@
       <c r="CY230" s="6"/>
       <c r="CZ230" s="6"/>
     </row>
-    <row r="231" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="231" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A231" s="12">
         <v>284</v>
       </c>
@@ -13471,7 +13478,7 @@
       <c r="CY231" s="6"/>
       <c r="CZ231" s="6"/>
     </row>
-    <row r="232" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="232" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A232" s="12">
         <v>285</v>
       </c>
@@ -13597,7 +13604,7 @@
       <c r="CY232" s="6"/>
       <c r="CZ232" s="6"/>
     </row>
-    <row r="233" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="233" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A233" s="12">
         <v>286</v>
       </c>
@@ -13723,7 +13730,7 @@
       <c r="CY233" s="6"/>
       <c r="CZ233" s="6"/>
     </row>
-    <row r="234" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="234" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A234" s="12">
         <v>287</v>
       </c>
@@ -13849,7 +13856,7 @@
       <c r="CY234" s="6"/>
       <c r="CZ234" s="6"/>
     </row>
-    <row r="235" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="235" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A235" s="12">
         <v>288</v>
       </c>
@@ -14225,7 +14232,7 @@
       <c r="CY237" s="6"/>
       <c r="CZ237" s="6"/>
     </row>
-    <row r="238" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="238" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A238" s="12">
         <v>291</v>
       </c>
@@ -14351,7 +14358,7 @@
       <c r="CY238" s="6"/>
       <c r="CZ238" s="6"/>
     </row>
-    <row r="239" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="239" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A239" s="12">
         <v>308</v>
       </c>
@@ -14383,7 +14390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="240" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A240" s="12">
         <v>309</v>
       </c>
@@ -14415,7 +14422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="241" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A241" s="12">
         <v>310</v>
       </c>
@@ -14447,7 +14454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="242" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A242" s="12">
         <v>311</v>
       </c>
@@ -14481,7 +14488,7 @@
       <c r="CY242" s="6"/>
       <c r="CZ242" s="6"/>
     </row>
-    <row r="243" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="243" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A243" s="12">
         <v>312</v>
       </c>
@@ -14607,7 +14614,7 @@
       <c r="CY243" s="6"/>
       <c r="CZ243" s="6"/>
     </row>
-    <row r="244" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="244" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A244" s="12">
         <v>313</v>
       </c>
@@ -14639,7 +14646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="245" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A245" s="12">
         <v>314</v>
       </c>
@@ -14671,7 +14678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="246" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="246" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A246" s="12">
         <v>315</v>
       </c>
@@ -14831,7 +14838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:166" s="17" customFormat="1" ht="16" customHeight="1">
+    <row r="251" spans="1:166" s="17" customFormat="1" ht="16.05" customHeight="1">
       <c r="A251" s="12">
         <v>320</v>
       </c>
@@ -15019,7 +15026,7 @@
       <c r="FI251" s="9"/>
       <c r="FJ251" s="9"/>
     </row>
-    <row r="252" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="252" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A252" s="12">
         <v>321</v>
       </c>
@@ -15051,7 +15058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="253" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A253" s="12">
         <v>322</v>
       </c>
@@ -15177,7 +15184,7 @@
       <c r="CY253" s="6"/>
       <c r="CZ253" s="6"/>
     </row>
-    <row r="254" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="254" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A254" s="12">
         <v>323</v>
       </c>
@@ -15303,7 +15310,7 @@
       <c r="CY254" s="6"/>
       <c r="CZ254" s="6"/>
     </row>
-    <row r="255" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="255" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A255" s="12">
         <v>324</v>
       </c>
@@ -15393,7 +15400,7 @@
       <c r="FE255" s="10"/>
       <c r="FF255" s="10"/>
     </row>
-    <row r="256" spans="1:166" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="256" spans="1:166" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A256" s="12">
         <v>325</v>
       </c>
@@ -15425,7 +15432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="257" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="257" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A257" s="12">
         <v>326</v>
       </c>
@@ -15459,7 +15466,7 @@
       <c r="CY257" s="16"/>
       <c r="CZ257" s="16"/>
     </row>
-    <row r="258" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="258" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A258" s="12">
         <v>327</v>
       </c>
@@ -15491,7 +15498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="259" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A259" s="12">
         <v>328</v>
       </c>
@@ -15523,7 +15530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="260" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A260" s="12">
         <v>329</v>
       </c>
@@ -15555,7 +15562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="261" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A261" s="12">
         <v>330</v>
       </c>
@@ -15587,7 +15594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="262" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A262" s="12">
         <v>331</v>
       </c>
@@ -15619,7 +15626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="263" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A263" s="12">
         <v>332</v>
       </c>
@@ -15651,7 +15658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="264" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A264" s="12">
         <v>333</v>
       </c>
@@ -15777,7 +15784,7 @@
       <c r="CY264" s="6"/>
       <c r="CZ264" s="6"/>
     </row>
-    <row r="265" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="265" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A265" s="12">
         <v>335</v>
       </c>
@@ -15809,7 +15816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="266" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A266" s="12">
         <v>336</v>
       </c>
@@ -15841,7 +15848,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="267" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="267" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A267" s="12">
         <v>337</v>
       </c>
@@ -15875,7 +15882,7 @@
       <c r="CY267" s="6"/>
       <c r="CZ267" s="6"/>
     </row>
-    <row r="268" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="268" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A268" s="12">
         <v>338</v>
       </c>
@@ -15907,7 +15914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="269" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A269" s="12">
         <v>339</v>
       </c>
@@ -15939,7 +15946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="270" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A270" s="12">
         <v>340</v>
       </c>
@@ -15971,7 +15978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="271" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A271" s="12">
         <v>341</v>
       </c>
@@ -16097,7 +16104,7 @@
       <c r="CY271" s="6"/>
       <c r="CZ271" s="6"/>
     </row>
-    <row r="272" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="272" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A272" s="12">
         <v>342</v>
       </c>
@@ -16129,7 +16136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="273" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="273" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A273" s="12">
         <v>343</v>
       </c>
@@ -16163,7 +16170,7 @@
       <c r="CY273" s="6"/>
       <c r="CZ273" s="6"/>
     </row>
-    <row r="274" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="274" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A274" s="12">
         <v>345</v>
       </c>
@@ -16195,7 +16202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="275" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="275" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A275" s="12">
         <v>346</v>
       </c>
@@ -16227,7 +16234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="276" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A276" s="12"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -16239,7 +16246,7 @@
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
     </row>
-    <row r="277" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="277" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A277" s="12"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -16251,7 +16258,7 @@
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
     </row>
-    <row r="278" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="278" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -16263,7 +16270,7 @@
       <c r="CY278" s="6"/>
       <c r="CZ278" s="6"/>
     </row>
-    <row r="279" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="279" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A279" s="12"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -16277,7 +16284,7 @@
       <c r="CY279" s="6"/>
       <c r="CZ279" s="6"/>
     </row>
-    <row r="280" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="280" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A280" s="12"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -16380,7 +16387,7 @@
       <c r="CV280" s="8"/>
       <c r="CW280" s="8"/>
     </row>
-    <row r="281" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="281" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A281" s="12"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -16392,7 +16399,7 @@
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
     </row>
-    <row r="282" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="282" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A282" s="12"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -16404,7 +16411,7 @@
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
     </row>
-    <row r="283" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="283" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A283" s="12"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -16416,7 +16423,7 @@
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
     </row>
-    <row r="284" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="284" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -16428,7 +16435,7 @@
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
     </row>
-    <row r="285" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="285" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -16440,7 +16447,7 @@
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
     </row>
-    <row r="286" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="286" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -16452,7 +16459,7 @@
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
     </row>
-    <row r="287" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="287" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -16464,7 +16471,7 @@
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
     </row>
-    <row r="288" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="288" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A288" s="12"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -16476,7 +16483,7 @@
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
     </row>
-    <row r="289" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="289" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A289" s="12"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -16488,7 +16495,7 @@
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
     </row>
-    <row r="290" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="290" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A290" s="12"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -16502,7 +16509,7 @@
       <c r="CY290" s="6"/>
       <c r="CZ290" s="6"/>
     </row>
-    <row r="291" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="291" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A291" s="12"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -16514,7 +16521,7 @@
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
     </row>
-    <row r="292" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="292" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A292" s="12"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -16528,7 +16535,7 @@
       <c r="CY292" s="6"/>
       <c r="CZ292" s="6"/>
     </row>
-    <row r="293" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="293" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A293" s="12"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -16540,7 +16547,7 @@
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
     </row>
-    <row r="294" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="294" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="5"/>
@@ -16554,7 +16561,7 @@
       <c r="CY294" s="6"/>
       <c r="CZ294" s="6"/>
     </row>
-    <row r="295" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="295" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="5"/>
@@ -16566,7 +16573,7 @@
       <c r="I295" s="28"/>
       <c r="J295" s="7"/>
     </row>
-    <row r="296" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="296" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="5"/>
@@ -16578,7 +16585,7 @@
       <c r="I296" s="28"/>
       <c r="J296" s="7"/>
     </row>
-    <row r="297" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="297" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A297" s="12"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -16590,7 +16597,7 @@
       <c r="I297" s="28"/>
       <c r="J297" s="7"/>
     </row>
-    <row r="298" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="298" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A298" s="12"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -16696,7 +16703,7 @@
       <c r="CY298" s="6"/>
       <c r="CZ298" s="6"/>
     </row>
-    <row r="299" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="299" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A299" s="12"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -16708,7 +16715,7 @@
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
     </row>
-    <row r="300" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="300" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A300" s="12"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -16720,7 +16727,7 @@
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
     </row>
-    <row r="301" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="301" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A301" s="12"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -16732,7 +16739,7 @@
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
     </row>
-    <row r="302" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="302" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A302" s="12"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -16838,7 +16845,7 @@
       <c r="CY302" s="6"/>
       <c r="CZ302" s="6"/>
     </row>
-    <row r="303" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="303" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A303" s="12"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -16850,7 +16857,7 @@
       <c r="I303" s="7"/>
       <c r="J303" s="7"/>
     </row>
-    <row r="304" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="304" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A304" s="12"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -16862,7 +16869,7 @@
       <c r="I304" s="7"/>
       <c r="J304" s="7"/>
     </row>
-    <row r="305" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="305" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A305" s="12"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -16874,7 +16881,7 @@
       <c r="I305" s="7"/>
       <c r="J305" s="7"/>
     </row>
-    <row r="306" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="306" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A306" s="12"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -16888,7 +16895,7 @@
       <c r="CY306" s="6"/>
       <c r="CZ306" s="6"/>
     </row>
-    <row r="307" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="307" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A307" s="12"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -16900,7 +16907,7 @@
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
     </row>
-    <row r="308" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="308" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A308" s="12"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -16912,7 +16919,7 @@
       <c r="I308" s="7"/>
       <c r="J308" s="7"/>
     </row>
-    <row r="309" spans="1:104" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="309" spans="1:104" s="9" customFormat="1" ht="19.05" customHeight="1">
       <c r="A309" s="12"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -16924,7 +16931,7 @@
       <c r="I309" s="7"/>
       <c r="J309" s="7"/>
     </row>
-    <row r="310" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="310" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A310" s="12"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -16936,7 +16943,7 @@
       <c r="I310" s="7"/>
       <c r="J310" s="7"/>
     </row>
-    <row r="311" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="311" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A311" s="12"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -17042,7 +17049,7 @@
       <c r="CY311" s="6"/>
       <c r="CZ311" s="6"/>
     </row>
-    <row r="312" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="312" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A312" s="12"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -17154,7 +17161,7 @@
       <c r="CY313" s="6"/>
       <c r="CZ313" s="6"/>
     </row>
-    <row r="314" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="314" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A314" s="12"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -17257,7 +17264,7 @@
       <c r="CY314" s="6"/>
       <c r="CZ314" s="6"/>
     </row>
-    <row r="315" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="315" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A315" s="12"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -17360,7 +17367,7 @@
       <c r="CY315" s="6"/>
       <c r="CZ315" s="6"/>
     </row>
-    <row r="316" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="316" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A316" s="12"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -17371,7 +17378,7 @@
       <c r="CY316" s="6"/>
       <c r="CZ316" s="6"/>
     </row>
-    <row r="317" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="317" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A317" s="12"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -17474,7 +17481,7 @@
       <c r="CY317" s="6"/>
       <c r="CZ317" s="6"/>
     </row>
-    <row r="318" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="318" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A318" s="12"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -17577,7 +17584,7 @@
       <c r="CY318" s="6"/>
       <c r="CZ318" s="6"/>
     </row>
-    <row r="319" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="319" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A319" s="12"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -17588,7 +17595,7 @@
       <c r="CY319" s="6"/>
       <c r="CZ319" s="6"/>
     </row>
-    <row r="320" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="320" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A320" s="12"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -17599,7 +17606,7 @@
       <c r="CY320" s="6"/>
       <c r="CZ320" s="6"/>
     </row>
-    <row r="321" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="321" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A321" s="12"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -17610,7 +17617,7 @@
       <c r="CY321" s="6"/>
       <c r="CZ321" s="6"/>
     </row>
-    <row r="322" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="322" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A322" s="12"/>
       <c r="B322" s="5"/>
       <c r="H322" s="2"/>
@@ -17711,7 +17718,7 @@
       <c r="CY322" s="6"/>
       <c r="CZ322" s="6"/>
     </row>
-    <row r="323" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="323" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A323" s="12"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -17722,7 +17729,7 @@
       <c r="I323" s="7"/>
       <c r="J323" s="7"/>
     </row>
-    <row r="324" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="324" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A324" s="12"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -17734,7 +17741,7 @@
       <c r="I324" s="19"/>
       <c r="J324" s="7"/>
     </row>
-    <row r="325" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="325" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A325" s="12"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -17840,7 +17847,7 @@
       <c r="CY325" s="6"/>
       <c r="CZ325" s="6"/>
     </row>
-    <row r="326" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="326" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A326" s="12"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -17854,7 +17861,7 @@
       <c r="CY326" s="6"/>
       <c r="CZ326" s="6"/>
     </row>
-    <row r="327" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="327" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A327" s="12"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -17960,7 +17967,7 @@
       <c r="CY327" s="6"/>
       <c r="CZ327" s="6"/>
     </row>
-    <row r="328" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="328" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A328" s="12"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -18066,7 +18073,7 @@
       <c r="CY328" s="6"/>
       <c r="CZ328" s="6"/>
     </row>
-    <row r="329" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="329" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A329" s="12"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -18172,7 +18179,7 @@
       <c r="CY329" s="6"/>
       <c r="CZ329" s="6"/>
     </row>
-    <row r="330" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="330" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A330" s="12"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -18278,7 +18285,7 @@
       <c r="CY330" s="6"/>
       <c r="CZ330" s="6"/>
     </row>
-    <row r="331" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="331" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A331" s="12"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -18384,7 +18391,7 @@
       <c r="CY331" s="6"/>
       <c r="CZ331" s="6"/>
     </row>
-    <row r="332" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="332" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A332" s="12"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -18490,7 +18497,7 @@
       <c r="CY332" s="6"/>
       <c r="CZ332" s="6"/>
     </row>
-    <row r="333" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="333" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A333" s="12"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -18596,7 +18603,7 @@
       <c r="CY333" s="6"/>
       <c r="CZ333" s="6"/>
     </row>
-    <row r="334" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="334" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A334" s="12"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -18702,7 +18709,7 @@
       <c r="CY334" s="6"/>
       <c r="CZ334" s="6"/>
     </row>
-    <row r="335" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="335" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A335" s="12"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
@@ -18808,7 +18815,7 @@
       <c r="CY335" s="6"/>
       <c r="CZ335" s="6"/>
     </row>
-    <row r="336" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="336" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A336" s="12"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
@@ -18822,7 +18829,7 @@
       <c r="CY336" s="6"/>
       <c r="CZ336" s="6"/>
     </row>
-    <row r="337" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="337" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A337" s="12"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
@@ -18928,7 +18935,7 @@
       <c r="CY337" s="6"/>
       <c r="CZ337" s="6"/>
     </row>
-    <row r="338" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="338" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A338" s="12"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
@@ -19034,7 +19041,7 @@
       <c r="CY338" s="6"/>
       <c r="CZ338" s="6"/>
     </row>
-    <row r="339" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="339" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A339" s="12"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
@@ -19140,7 +19147,7 @@
       <c r="CY339" s="6"/>
       <c r="CZ339" s="6"/>
     </row>
-    <row r="340" spans="1:104" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="340" spans="1:104" s="9" customFormat="1" ht="16.05" customHeight="1">
       <c r="A340" s="12"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -19152,7 +19159,7 @@
       <c r="I340" s="7"/>
       <c r="J340" s="7"/>
     </row>
-    <row r="341" spans="1:104" s="13" customFormat="1" ht="14" customHeight="1">
+    <row r="341" spans="1:104" s="13" customFormat="1" ht="13.95" customHeight="1">
       <c r="A341" s="11"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -19249,7 +19256,7 @@
       <c r="CV341" s="5"/>
       <c r="CW341" s="5"/>
     </row>
-    <row r="342" spans="1:104" ht="14" customHeight="1">
+    <row r="342" spans="1:104" ht="13.95" customHeight="1">
       <c r="A342" s="11"/>
       <c r="E342" s="6"/>
       <c r="F342" s="13"/>
@@ -19258,7 +19265,7 @@
       <c r="I342" s="13"/>
       <c r="J342" s="13"/>
     </row>
-    <row r="343" spans="1:104" ht="14" customHeight="1">
+    <row r="343" spans="1:104" ht="13.95" customHeight="1">
       <c r="A343" s="11"/>
       <c r="E343" s="6"/>
       <c r="F343" s="13"/>
@@ -19267,7 +19274,7 @@
       <c r="I343" s="13"/>
       <c r="J343" s="7"/>
     </row>
-    <row r="344" spans="1:104" ht="14" customHeight="1">
+    <row r="344" spans="1:104" ht="13.95" customHeight="1">
       <c r="A344" s="11"/>
       <c r="E344" s="6"/>
       <c r="F344" s="13"/>
@@ -19276,7 +19283,7 @@
       <c r="I344" s="13"/>
       <c r="J344" s="7"/>
     </row>
-    <row r="345" spans="1:104" ht="14" customHeight="1">
+    <row r="345" spans="1:104" ht="13.95" customHeight="1">
       <c r="A345" s="11"/>
       <c r="E345" s="6"/>
       <c r="F345" s="13"/>
@@ -19285,7 +19292,7 @@
       <c r="I345" s="13"/>
       <c r="J345" s="13"/>
     </row>
-    <row r="346" spans="1:104" ht="14" customHeight="1">
+    <row r="346" spans="1:104" ht="13.95" customHeight="1">
       <c r="A346" s="11"/>
       <c r="E346" s="6"/>
       <c r="F346" s="13"/>
@@ -19294,7 +19301,7 @@
       <c r="I346" s="13"/>
       <c r="J346" s="7"/>
     </row>
-    <row r="347" spans="1:104" ht="14" customHeight="1">
+    <row r="347" spans="1:104" ht="13.95" customHeight="1">
       <c r="A347" s="11"/>
       <c r="E347" s="13"/>
       <c r="F347" s="13"/>
@@ -19303,7 +19310,7 @@
       <c r="I347" s="13"/>
       <c r="J347" s="7"/>
     </row>
-    <row r="348" spans="1:104" s="32" customFormat="1" ht="14" customHeight="1">
+    <row r="348" spans="1:104" s="32" customFormat="1" ht="13.95" customHeight="1">
       <c r="A348" s="33"/>
       <c r="B348" s="31"/>
       <c r="C348" s="31"/>
@@ -19401,7 +19408,7 @@
       <c r="CV348" s="31"/>
       <c r="CW348" s="31"/>
     </row>
-    <row r="349" spans="1:104" ht="14" customHeight="1">
+    <row r="349" spans="1:104" ht="13.95" customHeight="1">
       <c r="A349" s="11"/>
       <c r="E349" s="6"/>
       <c r="F349" s="13"/>
@@ -19410,7 +19417,7 @@
       <c r="I349" s="13"/>
       <c r="J349" s="13"/>
     </row>
-    <row r="350" spans="1:104" ht="14" customHeight="1">
+    <row r="350" spans="1:104" ht="13.95" customHeight="1">
       <c r="A350" s="11"/>
       <c r="E350" s="6"/>
       <c r="F350" s="13"/>
@@ -19419,7 +19426,7 @@
       <c r="I350" s="13"/>
       <c r="J350" s="13"/>
     </row>
-    <row r="351" spans="1:104" ht="14" customHeight="1">
+    <row r="351" spans="1:104" ht="13.95" customHeight="1">
       <c r="A351" s="11"/>
       <c r="E351" s="6"/>
       <c r="F351" s="13"/>
@@ -19428,7 +19435,7 @@
       <c r="I351" s="13"/>
       <c r="J351" s="13"/>
     </row>
-    <row r="352" spans="1:104" ht="14" customHeight="1">
+    <row r="352" spans="1:104" ht="13.95" customHeight="1">
       <c r="A352" s="11"/>
       <c r="E352" s="6"/>
       <c r="F352" s="13"/>
@@ -19437,7 +19444,7 @@
       <c r="I352" s="13"/>
       <c r="J352" s="13"/>
     </row>
-    <row r="353" spans="1:101" ht="14" customHeight="1">
+    <row r="353" spans="1:101" ht="13.95" customHeight="1">
       <c r="A353" s="11"/>
       <c r="E353" s="6"/>
       <c r="F353" s="13"/>
@@ -19446,7 +19453,7 @@
       <c r="I353" s="13"/>
       <c r="J353" s="7"/>
     </row>
-    <row r="354" spans="1:101" ht="14" customHeight="1">
+    <row r="354" spans="1:101" ht="13.95" customHeight="1">
       <c r="A354" s="11"/>
       <c r="E354" s="6"/>
       <c r="F354" s="13"/>
@@ -19455,7 +19462,7 @@
       <c r="I354" s="13"/>
       <c r="J354" s="7"/>
     </row>
-    <row r="355" spans="1:101" ht="14" customHeight="1">
+    <row r="355" spans="1:101" ht="13.95" customHeight="1">
       <c r="A355" s="11"/>
       <c r="E355" s="6"/>
       <c r="F355" s="13"/>
@@ -19464,7 +19471,7 @@
       <c r="I355" s="13"/>
       <c r="J355" s="7"/>
     </row>
-    <row r="356" spans="1:101" ht="14" customHeight="1">
+    <row r="356" spans="1:101" ht="13.95" customHeight="1">
       <c r="A356" s="11"/>
       <c r="E356" s="6"/>
       <c r="F356" s="13"/>
@@ -19473,7 +19480,7 @@
       <c r="I356" s="13"/>
       <c r="J356" s="7"/>
     </row>
-    <row r="357" spans="1:101" ht="14" customHeight="1">
+    <row r="357" spans="1:101" ht="13.95" customHeight="1">
       <c r="A357" s="11"/>
       <c r="E357" s="6"/>
       <c r="F357" s="13"/>
@@ -19482,7 +19489,7 @@
       <c r="I357" s="13"/>
       <c r="J357" s="13"/>
     </row>
-    <row r="358" spans="1:101" ht="14" customHeight="1">
+    <row r="358" spans="1:101" ht="13.95" customHeight="1">
       <c r="A358" s="11"/>
       <c r="E358" s="6"/>
       <c r="F358" s="13"/>
@@ -19491,7 +19498,7 @@
       <c r="I358" s="13"/>
       <c r="J358" s="13"/>
     </row>
-    <row r="359" spans="1:101" ht="14" customHeight="1">
+    <row r="359" spans="1:101" ht="13.95" customHeight="1">
       <c r="A359" s="11"/>
       <c r="E359" s="6"/>
       <c r="F359" s="13"/>
@@ -19500,7 +19507,7 @@
       <c r="I359" s="13"/>
       <c r="J359" s="13"/>
     </row>
-    <row r="360" spans="1:101" ht="14" customHeight="1">
+    <row r="360" spans="1:101" ht="13.95" customHeight="1">
       <c r="A360" s="11"/>
       <c r="E360" s="6"/>
       <c r="F360" s="13"/>
@@ -19509,7 +19516,7 @@
       <c r="I360" s="13"/>
       <c r="J360" s="13"/>
     </row>
-    <row r="361" spans="1:101" s="13" customFormat="1" ht="14" customHeight="1">
+    <row r="361" spans="1:101" s="13" customFormat="1" ht="13.95" customHeight="1">
       <c r="A361" s="11"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -19606,7 +19613,7 @@
       <c r="CV361" s="5"/>
       <c r="CW361" s="5"/>
     </row>
-    <row r="362" spans="1:101" ht="14" customHeight="1">
+    <row r="362" spans="1:101" ht="13.95" customHeight="1">
       <c r="A362" s="11"/>
       <c r="E362" s="6"/>
       <c r="F362" s="13"/>
@@ -19615,7 +19622,7 @@
       <c r="I362" s="13"/>
       <c r="J362" s="13"/>
     </row>
-    <row r="363" spans="1:101" ht="14" customHeight="1">
+    <row r="363" spans="1:101" ht="13.95" customHeight="1">
       <c r="A363" s="11"/>
       <c r="E363" s="6"/>
       <c r="F363" s="13"/>
@@ -19624,7 +19631,7 @@
       <c r="I363" s="13"/>
       <c r="J363" s="7"/>
     </row>
-    <row r="364" spans="1:101" ht="14" customHeight="1">
+    <row r="364" spans="1:101" ht="13.95" customHeight="1">
       <c r="A364" s="11"/>
       <c r="E364" s="6"/>
       <c r="F364" s="13"/>
@@ -19633,7 +19640,7 @@
       <c r="I364" s="13"/>
       <c r="J364" s="7"/>
     </row>
-    <row r="365" spans="1:101" ht="14" customHeight="1">
+    <row r="365" spans="1:101" ht="13.95" customHeight="1">
       <c r="A365" s="11"/>
       <c r="E365" s="6"/>
       <c r="F365" s="13"/>
@@ -19642,7 +19649,7 @@
       <c r="I365" s="13"/>
       <c r="J365" s="13"/>
     </row>
-    <row r="366" spans="1:101" ht="14" customHeight="1">
+    <row r="366" spans="1:101" ht="13.95" customHeight="1">
       <c r="A366" s="11"/>
       <c r="E366" s="6"/>
       <c r="F366" s="13"/>
@@ -19651,7 +19658,7 @@
       <c r="I366" s="13"/>
       <c r="J366" s="7"/>
     </row>
-    <row r="367" spans="1:101" ht="14" customHeight="1">
+    <row r="367" spans="1:101" ht="13.95" customHeight="1">
       <c r="A367" s="11"/>
       <c r="E367" s="6"/>
       <c r="F367" s="13"/>
@@ -19660,7 +19667,7 @@
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
     </row>
-    <row r="368" spans="1:101" ht="14" customHeight="1">
+    <row r="368" spans="1:101" ht="13.95" customHeight="1">
       <c r="A368" s="11"/>
       <c r="E368" s="6"/>
       <c r="F368" s="13"/>
@@ -19669,7 +19676,7 @@
       <c r="I368" s="13"/>
       <c r="J368" s="13"/>
     </row>
-    <row r="369" spans="1:101" ht="14" customHeight="1">
+    <row r="369" spans="1:101" ht="13.95" customHeight="1">
       <c r="A369" s="11"/>
       <c r="E369" s="6"/>
       <c r="F369" s="13"/>
@@ -19678,7 +19685,7 @@
       <c r="I369" s="13"/>
       <c r="J369" s="13"/>
     </row>
-    <row r="370" spans="1:101" s="13" customFormat="1" ht="14" customHeight="1">
+    <row r="370" spans="1:101" s="13" customFormat="1" ht="13.95" customHeight="1">
       <c r="A370" s="11"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -19776,7 +19783,7 @@
       <c r="CV370" s="5"/>
       <c r="CW370" s="5"/>
     </row>
-    <row r="371" spans="1:101" ht="14" customHeight="1">
+    <row r="371" spans="1:101" ht="13.95" customHeight="1">
       <c r="A371" s="11"/>
       <c r="E371" s="6"/>
       <c r="F371" s="13"/>
@@ -19785,7 +19792,7 @@
       <c r="I371" s="13"/>
       <c r="J371" s="7"/>
     </row>
-    <row r="372" spans="1:101" ht="14" customHeight="1">
+    <row r="372" spans="1:101" ht="13.95" customHeight="1">
       <c r="A372" s="11"/>
       <c r="E372" s="6"/>
       <c r="F372" s="13"/>
@@ -19794,7 +19801,7 @@
       <c r="I372" s="13"/>
       <c r="J372" s="13"/>
     </row>
-    <row r="373" spans="1:101" ht="14" customHeight="1">
+    <row r="373" spans="1:101" ht="13.95" customHeight="1">
       <c r="A373" s="11"/>
       <c r="E373" s="6"/>
       <c r="F373" s="13"/>
@@ -19803,7 +19810,7 @@
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
     </row>
-    <row r="374" spans="1:101" ht="14" customHeight="1">
+    <row r="374" spans="1:101" ht="13.95" customHeight="1">
       <c r="A374" s="11"/>
       <c r="E374" s="6"/>
       <c r="F374" s="13"/>
@@ -19812,7 +19819,7 @@
       <c r="I374" s="13"/>
       <c r="J374" s="13"/>
     </row>
-    <row r="375" spans="1:101" ht="14" customHeight="1">
+    <row r="375" spans="1:101" ht="13.95" customHeight="1">
       <c r="A375" s="11"/>
       <c r="E375" s="6"/>
       <c r="F375" s="13"/>
@@ -19821,7 +19828,7 @@
       <c r="I375" s="13"/>
       <c r="J375" s="7"/>
     </row>
-    <row r="376" spans="1:101" ht="14" customHeight="1">
+    <row r="376" spans="1:101" ht="13.95" customHeight="1">
       <c r="A376" s="11"/>
       <c r="E376" s="6"/>
       <c r="F376" s="13"/>
@@ -19830,7 +19837,7 @@
       <c r="I376" s="13"/>
       <c r="J376" s="13"/>
     </row>
-    <row r="377" spans="1:101" ht="14" customHeight="1">
+    <row r="377" spans="1:101" ht="13.95" customHeight="1">
       <c r="A377" s="11"/>
       <c r="E377" s="6"/>
       <c r="F377" s="13"/>
@@ -19839,7 +19846,7 @@
       <c r="I377" s="13"/>
       <c r="J377" s="13"/>
     </row>
-    <row r="378" spans="1:101" ht="14" customHeight="1">
+    <row r="378" spans="1:101" ht="13.95" customHeight="1">
       <c r="A378" s="11"/>
       <c r="E378" s="6"/>
       <c r="F378" s="13"/>
@@ -19848,7 +19855,7 @@
       <c r="I378" s="13"/>
       <c r="J378" s="7"/>
     </row>
-    <row r="379" spans="1:101" ht="14" customHeight="1">
+    <row r="379" spans="1:101" ht="13.95" customHeight="1">
       <c r="A379" s="11"/>
       <c r="E379" s="6"/>
       <c r="F379" s="13"/>
@@ -19857,7 +19864,7 @@
       <c r="I379" s="13"/>
       <c r="J379" s="13"/>
     </row>
-    <row r="380" spans="1:101" ht="14" customHeight="1">
+    <row r="380" spans="1:101" ht="13.95" customHeight="1">
       <c r="A380" s="11"/>
       <c r="E380" s="6"/>
       <c r="F380" s="13"/>
@@ -19866,7 +19873,7 @@
       <c r="I380" s="13"/>
       <c r="J380" s="13"/>
     </row>
-    <row r="381" spans="1:101" ht="14" customHeight="1">
+    <row r="381" spans="1:101" ht="13.95" customHeight="1">
       <c r="A381" s="11"/>
       <c r="E381" s="6"/>
       <c r="F381" s="13"/>
@@ -19875,7 +19882,7 @@
       <c r="I381" s="13"/>
       <c r="J381" s="13"/>
     </row>
-    <row r="382" spans="1:101" ht="14" customHeight="1">
+    <row r="382" spans="1:101" ht="13.95" customHeight="1">
       <c r="A382" s="11"/>
       <c r="E382" s="6"/>
       <c r="F382" s="13"/>
@@ -19884,7 +19891,7 @@
       <c r="I382" s="13"/>
       <c r="J382" s="13"/>
     </row>
-    <row r="383" spans="1:101" ht="14" customHeight="1">
+    <row r="383" spans="1:101" ht="13.95" customHeight="1">
       <c r="A383" s="11"/>
       <c r="E383" s="6"/>
       <c r="F383" s="13"/>
@@ -19893,7 +19900,7 @@
       <c r="I383" s="13"/>
       <c r="J383" s="13"/>
     </row>
-    <row r="384" spans="1:101" ht="14" customHeight="1">
+    <row r="384" spans="1:101" ht="13.95" customHeight="1">
       <c r="A384" s="11"/>
       <c r="E384" s="6"/>
       <c r="F384" s="13"/>
@@ -19902,7 +19909,7 @@
       <c r="I384" s="13"/>
       <c r="J384" s="13"/>
     </row>
-    <row r="385" spans="1:10" ht="14" customHeight="1">
+    <row r="385" spans="1:10" ht="13.95" customHeight="1">
       <c r="A385" s="11"/>
       <c r="E385" s="6"/>
       <c r="F385" s="13"/>
@@ -19911,7 +19918,7 @@
       <c r="I385" s="13"/>
       <c r="J385" s="13"/>
     </row>
-    <row r="386" spans="1:10" ht="14" customHeight="1">
+    <row r="386" spans="1:10" ht="13.95" customHeight="1">
       <c r="A386" s="11"/>
       <c r="E386" s="6"/>
       <c r="F386" s="13"/>
@@ -19920,7 +19927,7 @@
       <c r="I386" s="13"/>
       <c r="J386" s="13"/>
     </row>
-    <row r="387" spans="1:10" ht="14" customHeight="1">
+    <row r="387" spans="1:10" ht="13.95" customHeight="1">
       <c r="A387" s="11"/>
       <c r="E387" s="6"/>
       <c r="F387" s="13"/>
@@ -19929,7 +19936,7 @@
       <c r="I387" s="13"/>
       <c r="J387" s="13"/>
     </row>
-    <row r="388" spans="1:10" ht="14" customHeight="1">
+    <row r="388" spans="1:10" ht="13.95" customHeight="1">
       <c r="A388" s="11"/>
       <c r="E388" s="6"/>
       <c r="F388" s="13"/>
@@ -19938,7 +19945,7 @@
       <c r="I388" s="13"/>
       <c r="J388" s="7"/>
     </row>
-    <row r="389" spans="1:10" ht="14" customHeight="1">
+    <row r="389" spans="1:10" ht="13.95" customHeight="1">
       <c r="A389" s="11"/>
       <c r="E389" s="6"/>
       <c r="F389" s="13"/>
@@ -19947,7 +19954,7 @@
       <c r="I389" s="13"/>
       <c r="J389" s="13"/>
     </row>
-    <row r="390" spans="1:10" ht="14" customHeight="1">
+    <row r="390" spans="1:10" ht="13.95" customHeight="1">
       <c r="A390" s="11"/>
       <c r="E390" s="6"/>
       <c r="F390" s="13"/>
@@ -19956,7 +19963,7 @@
       <c r="I390" s="13"/>
       <c r="J390" s="13"/>
     </row>
-    <row r="391" spans="1:10" ht="14" customHeight="1">
+    <row r="391" spans="1:10" ht="13.95" customHeight="1">
       <c r="A391" s="11"/>
       <c r="E391" s="6"/>
       <c r="F391" s="13"/>
@@ -19965,7 +19972,7 @@
       <c r="I391" s="13"/>
       <c r="J391" s="13"/>
     </row>
-    <row r="392" spans="1:10" ht="14" customHeight="1">
+    <row r="392" spans="1:10" ht="13.95" customHeight="1">
       <c r="A392" s="11"/>
       <c r="E392" s="6"/>
       <c r="F392" s="13"/>
@@ -19974,7 +19981,7 @@
       <c r="I392" s="13"/>
       <c r="J392" s="13"/>
     </row>
-    <row r="393" spans="1:10" ht="14" customHeight="1">
+    <row r="393" spans="1:10" ht="13.95" customHeight="1">
       <c r="A393" s="11"/>
       <c r="E393" s="6"/>
       <c r="F393" s="13"/>
@@ -19983,7 +19990,7 @@
       <c r="I393" s="13"/>
       <c r="J393" s="13"/>
     </row>
-    <row r="394" spans="1:10" ht="14" customHeight="1">
+    <row r="394" spans="1:10" ht="13.95" customHeight="1">
       <c r="A394" s="11"/>
       <c r="E394" s="6"/>
       <c r="F394" s="13"/>
@@ -19992,7 +19999,7 @@
       <c r="I394" s="13"/>
       <c r="J394" s="13"/>
     </row>
-    <row r="395" spans="1:10" ht="14" customHeight="1">
+    <row r="395" spans="1:10" ht="13.95" customHeight="1">
       <c r="A395" s="11"/>
       <c r="E395" s="6"/>
       <c r="F395" s="13"/>
@@ -20001,7 +20008,7 @@
       <c r="I395" s="13"/>
       <c r="J395" s="7"/>
     </row>
-    <row r="396" spans="1:10" ht="14" customHeight="1">
+    <row r="396" spans="1:10" ht="13.95" customHeight="1">
       <c r="A396" s="11"/>
       <c r="E396" s="6"/>
       <c r="F396" s="13"/>
@@ -20010,7 +20017,7 @@
       <c r="I396" s="13"/>
       <c r="J396" s="13"/>
     </row>
-    <row r="397" spans="1:10" ht="14" customHeight="1">
+    <row r="397" spans="1:10" ht="13.95" customHeight="1">
       <c r="A397" s="11"/>
       <c r="E397" s="6"/>
       <c r="F397" s="13"/>
@@ -20019,7 +20026,7 @@
       <c r="I397" s="13"/>
       <c r="J397" s="7"/>
     </row>
-    <row r="398" spans="1:10" ht="14" customHeight="1">
+    <row r="398" spans="1:10" ht="13.95" customHeight="1">
       <c r="A398" s="11"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
@@ -20028,7 +20035,7 @@
       <c r="I398" s="13"/>
       <c r="J398" s="7"/>
     </row>
-    <row r="399" spans="1:10" ht="14" customHeight="1">
+    <row r="399" spans="1:10" ht="13.95" customHeight="1">
       <c r="A399" s="11"/>
       <c r="E399" s="6"/>
       <c r="F399" s="13"/>
@@ -20037,7 +20044,7 @@
       <c r="I399" s="13"/>
       <c r="J399" s="13"/>
     </row>
-    <row r="400" spans="1:10" ht="14" customHeight="1">
+    <row r="400" spans="1:10" ht="13.95" customHeight="1">
       <c r="A400" s="11"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
@@ -20046,7 +20053,7 @@
       <c r="I400" s="13"/>
       <c r="J400" s="7"/>
     </row>
-    <row r="401" spans="1:166" ht="14" customHeight="1">
+    <row r="401" spans="1:166" ht="13.95" customHeight="1">
       <c r="A401" s="11"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
@@ -20059,7 +20066,7 @@
       <c r="FI401" s="9"/>
       <c r="FJ401" s="9"/>
     </row>
-    <row r="402" spans="1:166" ht="14" customHeight="1">
+    <row r="402" spans="1:166" ht="13.95" customHeight="1">
       <c r="A402" s="11"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
@@ -20068,7 +20075,7 @@
       <c r="I402" s="13"/>
       <c r="J402" s="7"/>
     </row>
-    <row r="403" spans="1:166" ht="14" customHeight="1">
+    <row r="403" spans="1:166" ht="13.95" customHeight="1">
       <c r="A403" s="11"/>
       <c r="E403" s="6"/>
       <c r="F403" s="13"/>
@@ -20077,7 +20084,7 @@
       <c r="I403" s="13"/>
       <c r="J403" s="7"/>
     </row>
-    <row r="404" spans="1:166" ht="14" customHeight="1">
+    <row r="404" spans="1:166" ht="13.95" customHeight="1">
       <c r="A404" s="11"/>
       <c r="E404" s="6"/>
       <c r="F404" s="13"/>
@@ -20086,7 +20093,7 @@
       <c r="I404" s="13"/>
       <c r="J404" s="7"/>
     </row>
-    <row r="405" spans="1:166" ht="14" customHeight="1">
+    <row r="405" spans="1:166" ht="13.95" customHeight="1">
       <c r="A405" s="11"/>
       <c r="E405" s="6"/>
       <c r="F405" s="13"/>
@@ -20095,7 +20102,7 @@
       <c r="I405" s="13"/>
       <c r="J405" s="7"/>
     </row>
-    <row r="406" spans="1:166" ht="14" customHeight="1">
+    <row r="406" spans="1:166" ht="13.95" customHeight="1">
       <c r="A406" s="11"/>
       <c r="E406" s="6"/>
       <c r="F406" s="13"/>
@@ -20104,7 +20111,7 @@
       <c r="I406" s="13"/>
       <c r="J406" s="7"/>
     </row>
-    <row r="407" spans="1:166" ht="14" customHeight="1">
+    <row r="407" spans="1:166" ht="13.95" customHeight="1">
       <c r="A407" s="11"/>
       <c r="E407" s="6"/>
       <c r="F407" s="13"/>
@@ -20113,7 +20120,7 @@
       <c r="I407" s="13"/>
       <c r="J407" s="7"/>
     </row>
-    <row r="408" spans="1:166" ht="14" customHeight="1">
+    <row r="408" spans="1:166" ht="13.95" customHeight="1">
       <c r="A408" s="11"/>
       <c r="E408" s="6"/>
       <c r="F408" s="13"/>
@@ -20122,7 +20129,7 @@
       <c r="I408" s="13"/>
       <c r="J408" s="7"/>
     </row>
-    <row r="409" spans="1:166" ht="14" customHeight="1">
+    <row r="409" spans="1:166" ht="13.95" customHeight="1">
       <c r="A409" s="11"/>
       <c r="E409" s="6"/>
       <c r="F409" s="13"/>
@@ -20131,7 +20138,7 @@
       <c r="I409" s="13"/>
       <c r="J409" s="7"/>
     </row>
-    <row r="410" spans="1:166" ht="14" customHeight="1">
+    <row r="410" spans="1:166" ht="13.95" customHeight="1">
       <c r="A410" s="11"/>
       <c r="E410" s="6"/>
       <c r="F410" s="13"/>
@@ -20140,7 +20147,7 @@
       <c r="I410" s="13"/>
       <c r="J410" s="7"/>
     </row>
-    <row r="411" spans="1:166" ht="14" customHeight="1">
+    <row r="411" spans="1:166" ht="13.95" customHeight="1">
       <c r="A411" s="11"/>
       <c r="E411" s="6"/>
       <c r="F411" s="13"/>
@@ -20149,7 +20156,7 @@
       <c r="I411" s="13"/>
       <c r="J411" s="7"/>
     </row>
-    <row r="412" spans="1:166" ht="14" customHeight="1">
+    <row r="412" spans="1:166" ht="13.95" customHeight="1">
       <c r="A412" s="11"/>
       <c r="E412" s="6"/>
       <c r="F412" s="13"/>
@@ -20158,7 +20165,7 @@
       <c r="I412" s="13"/>
       <c r="J412" s="7"/>
     </row>
-    <row r="413" spans="1:166" ht="14" customHeight="1">
+    <row r="413" spans="1:166" ht="13.95" customHeight="1">
       <c r="A413" s="11"/>
       <c r="E413" s="6"/>
       <c r="F413" s="13"/>
@@ -20167,7 +20174,7 @@
       <c r="I413" s="13"/>
       <c r="J413" s="7"/>
     </row>
-    <row r="414" spans="1:166" ht="14" customHeight="1">
+    <row r="414" spans="1:166" ht="13.95" customHeight="1">
       <c r="A414" s="11"/>
       <c r="E414" s="6"/>
       <c r="F414" s="13"/>
@@ -20176,7 +20183,7 @@
       <c r="I414" s="13"/>
       <c r="J414" s="7"/>
     </row>
-    <row r="415" spans="1:166" ht="14" customHeight="1">
+    <row r="415" spans="1:166" ht="13.95" customHeight="1">
       <c r="A415" s="11"/>
       <c r="E415" s="6"/>
       <c r="F415" s="13"/>
@@ -20185,7 +20192,7 @@
       <c r="I415" s="13"/>
       <c r="J415" s="7"/>
     </row>
-    <row r="416" spans="1:166" ht="14" customHeight="1">
+    <row r="416" spans="1:166" ht="13.95" customHeight="1">
       <c r="A416" s="11"/>
       <c r="E416" s="6"/>
       <c r="F416" s="13"/>
@@ -20194,7 +20201,7 @@
       <c r="I416" s="13"/>
       <c r="J416" s="7"/>
     </row>
-    <row r="417" spans="1:10" ht="14" customHeight="1">
+    <row r="417" spans="1:10" ht="13.95" customHeight="1">
       <c r="A417" s="11"/>
       <c r="E417" s="6"/>
       <c r="F417" s="13"/>
@@ -20203,7 +20210,7 @@
       <c r="I417" s="13"/>
       <c r="J417" s="7"/>
     </row>
-    <row r="418" spans="1:10" ht="14" customHeight="1">
+    <row r="418" spans="1:10" ht="13.95" customHeight="1">
       <c r="A418" s="11"/>
       <c r="E418" s="6"/>
       <c r="F418" s="13"/>
@@ -20212,7 +20219,7 @@
       <c r="I418" s="13"/>
       <c r="J418" s="7"/>
     </row>
-    <row r="419" spans="1:10" ht="14" customHeight="1">
+    <row r="419" spans="1:10" ht="13.95" customHeight="1">
       <c r="A419" s="11"/>
       <c r="E419" s="6"/>
       <c r="F419" s="13"/>
@@ -20221,7 +20228,7 @@
       <c r="I419" s="13"/>
       <c r="J419" s="7"/>
     </row>
-    <row r="420" spans="1:10" ht="14" customHeight="1">
+    <row r="420" spans="1:10" ht="13.95" customHeight="1">
       <c r="A420" s="11"/>
       <c r="E420" s="6"/>
       <c r="F420" s="13"/>
@@ -20230,7 +20237,7 @@
       <c r="I420" s="13"/>
       <c r="J420" s="7"/>
     </row>
-    <row r="421" spans="1:10" ht="14" customHeight="1">
+    <row r="421" spans="1:10" ht="13.95" customHeight="1">
       <c r="A421" s="11"/>
       <c r="E421" s="6"/>
       <c r="F421" s="13"/>
@@ -20239,7 +20246,7 @@
       <c r="I421" s="13"/>
       <c r="J421" s="7"/>
     </row>
-    <row r="422" spans="1:10" ht="14" customHeight="1">
+    <row r="422" spans="1:10" ht="13.95" customHeight="1">
       <c r="A422" s="11"/>
       <c r="E422" s="6"/>
       <c r="F422" s="13"/>
@@ -20248,7 +20255,7 @@
       <c r="I422" s="13"/>
       <c r="J422" s="7"/>
     </row>
-    <row r="423" spans="1:10" ht="14" customHeight="1">
+    <row r="423" spans="1:10" ht="13.95" customHeight="1">
       <c r="A423" s="11"/>
       <c r="E423" s="6"/>
       <c r="F423" s="13"/>
@@ -20257,7 +20264,7 @@
       <c r="I423" s="13"/>
       <c r="J423" s="7"/>
     </row>
-    <row r="424" spans="1:10" ht="14" customHeight="1">
+    <row r="424" spans="1:10" ht="13.95" customHeight="1">
       <c r="A424" s="11"/>
       <c r="E424" s="6"/>
       <c r="F424" s="13"/>
@@ -20266,7 +20273,7 @@
       <c r="I424" s="13"/>
       <c r="J424" s="7"/>
     </row>
-    <row r="425" spans="1:10" ht="14" customHeight="1">
+    <row r="425" spans="1:10" ht="13.95" customHeight="1">
       <c r="A425" s="11"/>
       <c r="E425" s="6"/>
       <c r="F425" s="13"/>
@@ -20275,7 +20282,7 @@
       <c r="I425" s="13"/>
       <c r="J425" s="7"/>
     </row>
-    <row r="426" spans="1:10" ht="14" customHeight="1">
+    <row r="426" spans="1:10" ht="13.95" customHeight="1">
       <c r="A426" s="11"/>
       <c r="E426" s="6"/>
       <c r="F426" s="13"/>
@@ -20284,7 +20291,7 @@
       <c r="I426" s="13"/>
       <c r="J426" s="7"/>
     </row>
-    <row r="427" spans="1:10" ht="14" customHeight="1">
+    <row r="427" spans="1:10" ht="13.95" customHeight="1">
       <c r="A427" s="11"/>
       <c r="E427" s="6"/>
       <c r="F427" s="13"/>
@@ -20293,7 +20300,7 @@
       <c r="I427" s="13"/>
       <c r="J427" s="7"/>
     </row>
-    <row r="428" spans="1:10" ht="14" customHeight="1">
+    <row r="428" spans="1:10" ht="13.95" customHeight="1">
       <c r="A428" s="11"/>
       <c r="E428" s="6"/>
       <c r="F428" s="13"/>
@@ -20302,7 +20309,7 @@
       <c r="I428" s="13"/>
       <c r="J428" s="7"/>
     </row>
-    <row r="429" spans="1:10" ht="14" customHeight="1">
+    <row r="429" spans="1:10" ht="13.95" customHeight="1">
       <c r="A429" s="11"/>
       <c r="E429" s="6"/>
       <c r="F429" s="13"/>
@@ -20311,7 +20318,7 @@
       <c r="I429" s="13"/>
       <c r="J429" s="7"/>
     </row>
-    <row r="430" spans="1:10" ht="14" customHeight="1">
+    <row r="430" spans="1:10" ht="13.95" customHeight="1">
       <c r="A430" s="11"/>
       <c r="E430" s="6"/>
       <c r="F430" s="13"/>
@@ -20320,7 +20327,7 @@
       <c r="I430" s="13"/>
       <c r="J430" s="7"/>
     </row>
-    <row r="431" spans="1:10" ht="14" customHeight="1">
+    <row r="431" spans="1:10" ht="13.95" customHeight="1">
       <c r="A431" s="11"/>
       <c r="E431" s="6"/>
       <c r="F431" s="13"/>
@@ -20329,7 +20336,7 @@
       <c r="I431" s="13"/>
       <c r="J431" s="7"/>
     </row>
-    <row r="432" spans="1:10" ht="14" customHeight="1">
+    <row r="432" spans="1:10" ht="13.95" customHeight="1">
       <c r="A432" s="11"/>
       <c r="E432" s="6"/>
       <c r="F432" s="13"/>
@@ -20338,7 +20345,7 @@
       <c r="I432" s="13"/>
       <c r="J432" s="7"/>
     </row>
-    <row r="433" spans="1:10" ht="14" customHeight="1">
+    <row r="433" spans="1:10" ht="13.95" customHeight="1">
       <c r="A433" s="11"/>
       <c r="E433" s="13"/>
       <c r="F433" s="13"/>
@@ -20347,7 +20354,7 @@
       <c r="I433" s="11"/>
       <c r="J433" s="7"/>
     </row>
-    <row r="434" spans="1:10" ht="14" customHeight="1">
+    <row r="434" spans="1:10" ht="13.95" customHeight="1">
       <c r="A434" s="11"/>
       <c r="E434" s="13"/>
       <c r="F434" s="13"/>
@@ -20356,7 +20363,7 @@
       <c r="I434" s="13"/>
       <c r="J434" s="7"/>
     </row>
-    <row r="435" spans="1:10" ht="14" customHeight="1">
+    <row r="435" spans="1:10" ht="13.95" customHeight="1">
       <c r="A435" s="11"/>
       <c r="E435" s="13"/>
       <c r="F435" s="13"/>
@@ -20365,7 +20372,7 @@
       <c r="I435" s="13"/>
       <c r="J435" s="7"/>
     </row>
-    <row r="436" spans="1:10" ht="14" customHeight="1">
+    <row r="436" spans="1:10" ht="13.95" customHeight="1">
       <c r="A436" s="11"/>
       <c r="E436" s="13"/>
       <c r="F436" s="13"/>
@@ -20374,7 +20381,7 @@
       <c r="I436" s="13"/>
       <c r="J436" s="7"/>
     </row>
-    <row r="437" spans="1:10" ht="14" customHeight="1">
+    <row r="437" spans="1:10" ht="13.95" customHeight="1">
       <c r="A437" s="11"/>
       <c r="E437" s="13"/>
       <c r="F437" s="13"/>
@@ -20383,7 +20390,7 @@
       <c r="I437" s="13"/>
       <c r="J437" s="7"/>
     </row>
-    <row r="438" spans="1:10" ht="14" customHeight="1">
+    <row r="438" spans="1:10" ht="13.95" customHeight="1">
       <c r="A438" s="11"/>
       <c r="E438" s="13"/>
       <c r="F438" s="13"/>
@@ -20392,7 +20399,7 @@
       <c r="I438" s="13"/>
       <c r="J438" s="7"/>
     </row>
-    <row r="439" spans="1:10" ht="14" customHeight="1">
+    <row r="439" spans="1:10" ht="13.95" customHeight="1">
       <c r="A439" s="11"/>
       <c r="E439" s="13"/>
       <c r="F439" s="13"/>
@@ -20401,7 +20408,7 @@
       <c r="I439" s="13"/>
       <c r="J439" s="7"/>
     </row>
-    <row r="440" spans="1:10" ht="14" customHeight="1">
+    <row r="440" spans="1:10" ht="13.95" customHeight="1">
       <c r="A440" s="11"/>
       <c r="E440" s="13"/>
       <c r="F440" s="13"/>
@@ -20410,7 +20417,7 @@
       <c r="I440" s="13"/>
       <c r="J440" s="7"/>
     </row>
-    <row r="441" spans="1:10" ht="14" customHeight="1">
+    <row r="441" spans="1:10" ht="13.95" customHeight="1">
       <c r="A441" s="11"/>
       <c r="E441" s="13"/>
       <c r="F441" s="13"/>
@@ -20419,7 +20426,7 @@
       <c r="I441" s="13"/>
       <c r="J441" s="7"/>
     </row>
-    <row r="442" spans="1:10" ht="14" customHeight="1">
+    <row r="442" spans="1:10" ht="13.95" customHeight="1">
       <c r="A442" s="11"/>
       <c r="E442" s="13"/>
       <c r="F442" s="13"/>
@@ -20428,7 +20435,7 @@
       <c r="I442" s="13"/>
       <c r="J442" s="7"/>
     </row>
-    <row r="443" spans="1:10" ht="14" customHeight="1">
+    <row r="443" spans="1:10" ht="13.95" customHeight="1">
       <c r="A443" s="11"/>
       <c r="E443" s="13"/>
       <c r="F443" s="13"/>
@@ -20437,7 +20444,7 @@
       <c r="I443" s="13"/>
       <c r="J443" s="7"/>
     </row>
-    <row r="444" spans="1:10" ht="14" customHeight="1">
+    <row r="444" spans="1:10" ht="13.95" customHeight="1">
       <c r="A444" s="11"/>
       <c r="E444" s="6"/>
       <c r="F444" s="13"/>
@@ -20446,7 +20453,7 @@
       <c r="I444" s="13"/>
       <c r="J444" s="13"/>
     </row>
-    <row r="445" spans="1:10" ht="14" customHeight="1">
+    <row r="445" spans="1:10" ht="13.95" customHeight="1">
       <c r="A445" s="11"/>
       <c r="E445" s="6"/>
       <c r="F445" s="13"/>
@@ -20455,7 +20462,7 @@
       <c r="I445" s="13"/>
       <c r="J445" s="7"/>
     </row>
-    <row r="446" spans="1:10" ht="14" customHeight="1">
+    <row r="446" spans="1:10" ht="13.95" customHeight="1">
       <c r="A446" s="11"/>
       <c r="E446" s="6"/>
       <c r="F446" s="13"/>
@@ -20464,7 +20471,7 @@
       <c r="I446" s="13"/>
       <c r="J446" s="7"/>
     </row>
-    <row r="447" spans="1:10" ht="14" customHeight="1">
+    <row r="447" spans="1:10" ht="13.95" customHeight="1">
       <c r="A447" s="11"/>
       <c r="E447" s="6"/>
       <c r="F447" s="13"/>
@@ -20473,7 +20480,7 @@
       <c r="I447" s="13"/>
       <c r="J447" s="13"/>
     </row>
-    <row r="448" spans="1:10" ht="14" customHeight="1">
+    <row r="448" spans="1:10" ht="13.95" customHeight="1">
       <c r="A448" s="11"/>
       <c r="E448" s="6"/>
       <c r="F448" s="13"/>
@@ -20482,7 +20489,7 @@
       <c r="I448" s="13"/>
       <c r="J448" s="7"/>
     </row>
-    <row r="449" spans="1:10" ht="14" customHeight="1">
+    <row r="449" spans="1:10" ht="13.95" customHeight="1">
       <c r="A449" s="11"/>
       <c r="E449" s="6"/>
       <c r="F449" s="13"/>
@@ -20491,7 +20498,7 @@
       <c r="I449" s="13"/>
       <c r="J449" s="13"/>
     </row>
-    <row r="450" spans="1:10" ht="14" customHeight="1">
+    <row r="450" spans="1:10" ht="13.95" customHeight="1">
       <c r="A450" s="11"/>
       <c r="E450" s="6"/>
       <c r="F450" s="13"/>
@@ -20500,7 +20507,7 @@
       <c r="I450" s="13"/>
       <c r="J450" s="7"/>
     </row>
-    <row r="451" spans="1:10" ht="14" customHeight="1">
+    <row r="451" spans="1:10" ht="13.95" customHeight="1">
       <c r="A451" s="11"/>
       <c r="E451" s="6"/>
       <c r="F451" s="13"/>
@@ -20509,7 +20516,7 @@
       <c r="I451" s="13"/>
       <c r="J451" s="7"/>
     </row>
-    <row r="452" spans="1:10" ht="14" customHeight="1">
+    <row r="452" spans="1:10" ht="13.95" customHeight="1">
       <c r="A452" s="11"/>
       <c r="E452" s="6"/>
       <c r="F452" s="13"/>
@@ -20518,7 +20525,7 @@
       <c r="I452" s="13"/>
       <c r="J452" s="7"/>
     </row>
-    <row r="453" spans="1:10" ht="14" customHeight="1">
+    <row r="453" spans="1:10" ht="13.95" customHeight="1">
       <c r="A453" s="11"/>
       <c r="E453" s="6"/>
       <c r="F453" s="13"/>
@@ -20527,7 +20534,7 @@
       <c r="I453" s="13"/>
       <c r="J453" s="7"/>
     </row>
-    <row r="454" spans="1:10" ht="14" customHeight="1">
+    <row r="454" spans="1:10" ht="13.95" customHeight="1">
       <c r="A454" s="11"/>
       <c r="E454" s="6"/>
       <c r="F454" s="13"/>
@@ -20536,7 +20543,7 @@
       <c r="I454" s="13"/>
       <c r="J454" s="7"/>
     </row>
-    <row r="455" spans="1:10" ht="14" customHeight="1">
+    <row r="455" spans="1:10" ht="13.95" customHeight="1">
       <c r="A455" s="11"/>
       <c r="E455" s="6"/>
       <c r="F455" s="13"/>
@@ -20545,7 +20552,7 @@
       <c r="I455" s="13"/>
       <c r="J455" s="13"/>
     </row>
-    <row r="456" spans="1:10" ht="14" customHeight="1">
+    <row r="456" spans="1:10" ht="13.95" customHeight="1">
       <c r="A456" s="11"/>
       <c r="E456" s="6"/>
       <c r="F456" s="13"/>
@@ -20554,7 +20561,7 @@
       <c r="I456" s="13"/>
       <c r="J456" s="7"/>
     </row>
-    <row r="457" spans="1:10" ht="14" customHeight="1">
+    <row r="457" spans="1:10" ht="13.95" customHeight="1">
       <c r="A457" s="11"/>
       <c r="E457" s="6"/>
       <c r="F457" s="13"/>
@@ -20563,7 +20570,7 @@
       <c r="I457" s="13"/>
       <c r="J457" s="7"/>
     </row>
-    <row r="458" spans="1:10" ht="14" customHeight="1">
+    <row r="458" spans="1:10" ht="13.95" customHeight="1">
       <c r="A458" s="11"/>
       <c r="E458" s="6"/>
       <c r="F458" s="13"/>
@@ -20572,7 +20579,7 @@
       <c r="I458" s="13"/>
       <c r="J458" s="7"/>
     </row>
-    <row r="459" spans="1:10" ht="14" customHeight="1">
+    <row r="459" spans="1:10" ht="13.95" customHeight="1">
       <c r="A459" s="11"/>
       <c r="E459" s="6"/>
       <c r="F459" s="13"/>
@@ -20581,7 +20588,7 @@
       <c r="I459" s="13"/>
       <c r="J459" s="13"/>
     </row>
-    <row r="460" spans="1:10" ht="14" customHeight="1">
+    <row r="460" spans="1:10" ht="13.95" customHeight="1">
       <c r="A460" s="11"/>
       <c r="E460" s="6"/>
       <c r="F460" s="13"/>
@@ -20590,7 +20597,7 @@
       <c r="I460" s="13"/>
       <c r="J460" s="7"/>
     </row>
-    <row r="461" spans="1:10" ht="14" customHeight="1">
+    <row r="461" spans="1:10" ht="13.95" customHeight="1">
       <c r="A461" s="11"/>
       <c r="E461" s="6"/>
       <c r="F461" s="13"/>
@@ -20599,7 +20606,7 @@
       <c r="I461" s="13"/>
       <c r="J461" s="13"/>
     </row>
-    <row r="462" spans="1:10" ht="14" customHeight="1">
+    <row r="462" spans="1:10" ht="13.95" customHeight="1">
       <c r="A462" s="11"/>
       <c r="E462" s="6"/>
       <c r="F462" s="13"/>
@@ -20608,7 +20615,7 @@
       <c r="I462" s="13"/>
       <c r="J462" s="13"/>
     </row>
-    <row r="463" spans="1:10" ht="14" customHeight="1">
+    <row r="463" spans="1:10" ht="13.95" customHeight="1">
       <c r="A463" s="11"/>
       <c r="E463" s="6"/>
       <c r="F463" s="13"/>
@@ -20617,7 +20624,7 @@
       <c r="I463" s="13"/>
       <c r="J463" s="7"/>
     </row>
-    <row r="464" spans="1:10" ht="14" customHeight="1">
+    <row r="464" spans="1:10" ht="13.95" customHeight="1">
       <c r="A464" s="11"/>
       <c r="E464" s="6"/>
       <c r="F464" s="13"/>
@@ -20626,7 +20633,7 @@
       <c r="I464" s="13"/>
       <c r="J464" s="7"/>
     </row>
-    <row r="465" spans="1:10" ht="14" customHeight="1">
+    <row r="465" spans="1:10" ht="13.95" customHeight="1">
       <c r="A465" s="11"/>
       <c r="E465" s="6"/>
       <c r="F465" s="13"/>
@@ -20635,7 +20642,7 @@
       <c r="I465" s="13"/>
       <c r="J465" s="7"/>
     </row>
-    <row r="466" spans="1:10" ht="14" customHeight="1">
+    <row r="466" spans="1:10" ht="13.95" customHeight="1">
       <c r="A466" s="11"/>
       <c r="E466" s="6"/>
       <c r="F466" s="13"/>
@@ -20644,7 +20651,7 @@
       <c r="I466" s="13"/>
       <c r="J466" s="7"/>
     </row>
-    <row r="467" spans="1:10" ht="14" customHeight="1">
+    <row r="467" spans="1:10" ht="13.95" customHeight="1">
       <c r="A467" s="11"/>
       <c r="E467" s="6"/>
       <c r="F467" s="13"/>
@@ -20653,7 +20660,7 @@
       <c r="I467" s="13"/>
       <c r="J467" s="7"/>
     </row>
-    <row r="468" spans="1:10" ht="14" customHeight="1">
+    <row r="468" spans="1:10" ht="13.95" customHeight="1">
       <c r="A468" s="11"/>
       <c r="E468" s="6"/>
       <c r="F468" s="13"/>
@@ -20662,7 +20669,7 @@
       <c r="I468" s="13"/>
       <c r="J468" s="7"/>
     </row>
-    <row r="469" spans="1:10" ht="14" customHeight="1">
+    <row r="469" spans="1:10" ht="13.95" customHeight="1">
       <c r="A469" s="11"/>
       <c r="E469" s="6"/>
       <c r="F469" s="13"/>
@@ -20671,7 +20678,7 @@
       <c r="I469" s="13"/>
       <c r="J469" s="7"/>
     </row>
-    <row r="470" spans="1:10" ht="14" customHeight="1">
+    <row r="470" spans="1:10" ht="13.95" customHeight="1">
       <c r="A470" s="11"/>
       <c r="E470" s="6"/>
       <c r="F470" s="13"/>
@@ -20680,7 +20687,7 @@
       <c r="I470" s="13"/>
       <c r="J470" s="7"/>
     </row>
-    <row r="471" spans="1:10" ht="14" customHeight="1">
+    <row r="471" spans="1:10" ht="13.95" customHeight="1">
       <c r="A471" s="11"/>
       <c r="E471" s="6"/>
       <c r="F471" s="13"/>
@@ -20689,7 +20696,7 @@
       <c r="I471" s="13"/>
       <c r="J471" s="7"/>
     </row>
-    <row r="472" spans="1:10" ht="14" customHeight="1">
+    <row r="472" spans="1:10" ht="13.95" customHeight="1">
       <c r="A472" s="11"/>
       <c r="E472" s="6"/>
       <c r="F472" s="13"/>
@@ -20698,7 +20705,7 @@
       <c r="I472" s="13"/>
       <c r="J472" s="7"/>
     </row>
-    <row r="473" spans="1:10" ht="14" customHeight="1">
+    <row r="473" spans="1:10" ht="13.95" customHeight="1">
       <c r="A473" s="11"/>
       <c r="E473" s="6"/>
       <c r="F473" s="13"/>
@@ -20707,7 +20714,7 @@
       <c r="I473" s="13"/>
       <c r="J473" s="7"/>
     </row>
-    <row r="474" spans="1:10" ht="14" customHeight="1">
+    <row r="474" spans="1:10" ht="13.95" customHeight="1">
       <c r="A474" s="11"/>
       <c r="E474" s="6"/>
       <c r="F474" s="13"/>
@@ -20716,7 +20723,7 @@
       <c r="I474" s="13"/>
       <c r="J474" s="7"/>
     </row>
-    <row r="475" spans="1:10" ht="14" customHeight="1">
+    <row r="475" spans="1:10" ht="13.95" customHeight="1">
       <c r="A475" s="11"/>
       <c r="E475" s="6"/>
       <c r="F475" s="13"/>
@@ -20725,7 +20732,7 @@
       <c r="I475" s="13"/>
       <c r="J475" s="7"/>
     </row>
-    <row r="476" spans="1:10" ht="14" customHeight="1">
+    <row r="476" spans="1:10" ht="13.95" customHeight="1">
       <c r="A476" s="11"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -20734,7 +20741,7 @@
       <c r="I476" s="13"/>
       <c r="J476" s="7"/>
     </row>
-    <row r="477" spans="1:10" ht="14" customHeight="1">
+    <row r="477" spans="1:10" ht="13.95" customHeight="1">
       <c r="A477" s="11"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
@@ -20743,7 +20750,7 @@
       <c r="I477" s="13"/>
       <c r="J477" s="7"/>
     </row>
-    <row r="478" spans="1:10" ht="14" customHeight="1">
+    <row r="478" spans="1:10" ht="13.95" customHeight="1">
       <c r="A478" s="11"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -20752,7 +20759,7 @@
       <c r="I478" s="13"/>
       <c r="J478" s="7"/>
     </row>
-    <row r="479" spans="1:10" ht="14" customHeight="1">
+    <row r="479" spans="1:10" ht="13.95" customHeight="1">
       <c r="A479" s="11"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
@@ -20761,7 +20768,7 @@
       <c r="I479" s="13"/>
       <c r="J479" s="13"/>
     </row>
-    <row r="480" spans="1:10" ht="14" customHeight="1">
+    <row r="480" spans="1:10" ht="13.95" customHeight="1">
       <c r="A480" s="11"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -20770,7 +20777,7 @@
       <c r="I480" s="13"/>
       <c r="J480" s="13"/>
     </row>
-    <row r="481" spans="1:10" ht="14" customHeight="1">
+    <row r="481" spans="1:10" ht="13.95" customHeight="1">
       <c r="A481" s="11"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
@@ -20779,7 +20786,7 @@
       <c r="I481" s="13"/>
       <c r="J481" s="13"/>
     </row>
-    <row r="482" spans="1:10" ht="14" customHeight="1">
+    <row r="482" spans="1:10" ht="13.95" customHeight="1">
       <c r="A482" s="11"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -20788,7 +20795,7 @@
       <c r="I482" s="13"/>
       <c r="J482" s="7"/>
     </row>
-    <row r="483" spans="1:10" ht="14" customHeight="1">
+    <row r="483" spans="1:10" ht="13.95" customHeight="1">
       <c r="A483" s="11"/>
       <c r="E483" s="6"/>
       <c r="F483" s="13"/>
@@ -20797,7 +20804,7 @@
       <c r="I483" s="13"/>
       <c r="J483" s="7"/>
     </row>
-    <row r="484" spans="1:10" ht="14" customHeight="1">
+    <row r="484" spans="1:10" ht="13.95" customHeight="1">
       <c r="A484" s="11"/>
       <c r="E484" s="6"/>
       <c r="F484" s="13"/>
@@ -20806,7 +20813,7 @@
       <c r="I484" s="13"/>
       <c r="J484" s="7"/>
     </row>
-    <row r="485" spans="1:10" ht="14" customHeight="1">
+    <row r="485" spans="1:10" ht="13.95" customHeight="1">
       <c r="A485" s="11"/>
       <c r="E485" s="6"/>
       <c r="F485" s="13"/>
@@ -20815,7 +20822,7 @@
       <c r="I485" s="13"/>
       <c r="J485" s="7"/>
     </row>
-    <row r="486" spans="1:10" ht="14" customHeight="1">
+    <row r="486" spans="1:10" ht="13.95" customHeight="1">
       <c r="A486" s="11"/>
       <c r="E486" s="6"/>
       <c r="F486" s="13"/>
@@ -20824,7 +20831,7 @@
       <c r="I486" s="13"/>
       <c r="J486" s="13"/>
     </row>
-    <row r="487" spans="1:10" ht="14" customHeight="1">
+    <row r="487" spans="1:10" ht="13.95" customHeight="1">
       <c r="A487" s="11"/>
       <c r="E487" s="6"/>
       <c r="F487" s="13"/>
@@ -20833,7 +20840,7 @@
       <c r="I487" s="13"/>
       <c r="J487" s="7"/>
     </row>
-    <row r="488" spans="1:10" ht="14" customHeight="1">
+    <row r="488" spans="1:10" ht="13.95" customHeight="1">
       <c r="A488" s="11"/>
       <c r="E488" s="6"/>
       <c r="F488" s="13"/>
@@ -20842,7 +20849,7 @@
       <c r="I488" s="13"/>
       <c r="J488" s="7"/>
     </row>
-    <row r="489" spans="1:10" ht="14" customHeight="1">
+    <row r="489" spans="1:10" ht="13.95" customHeight="1">
       <c r="A489" s="11"/>
       <c r="E489" s="6"/>
       <c r="F489" s="13"/>
@@ -20851,7 +20858,7 @@
       <c r="I489" s="13"/>
       <c r="J489" s="7"/>
     </row>
-    <row r="490" spans="1:10" ht="14" customHeight="1">
+    <row r="490" spans="1:10" ht="13.95" customHeight="1">
       <c r="A490" s="11"/>
       <c r="E490" s="6"/>
       <c r="F490" s="13"/>
@@ -20860,7 +20867,7 @@
       <c r="I490" s="13"/>
       <c r="J490" s="7"/>
     </row>
-    <row r="491" spans="1:10" ht="14" customHeight="1">
+    <row r="491" spans="1:10" ht="13.95" customHeight="1">
       <c r="A491" s="11"/>
       <c r="E491" s="6"/>
       <c r="F491" s="13"/>
@@ -20869,7 +20876,7 @@
       <c r="I491" s="13"/>
       <c r="J491" s="7"/>
     </row>
-    <row r="492" spans="1:10" ht="14" customHeight="1">
+    <row r="492" spans="1:10" ht="13.95" customHeight="1">
       <c r="A492" s="11"/>
       <c r="E492" s="6"/>
       <c r="F492" s="13"/>
@@ -20878,7 +20885,7 @@
       <c r="I492" s="13"/>
       <c r="J492" s="7"/>
     </row>
-    <row r="493" spans="1:10" ht="14" customHeight="1">
+    <row r="493" spans="1:10" ht="13.95" customHeight="1">
       <c r="A493" s="11"/>
       <c r="E493" s="6"/>
       <c r="F493" s="13"/>
@@ -20887,7 +20894,7 @@
       <c r="I493" s="13"/>
       <c r="J493" s="7"/>
     </row>
-    <row r="494" spans="1:10" ht="14" customHeight="1">
+    <row r="494" spans="1:10" ht="13.95" customHeight="1">
       <c r="A494" s="11"/>
       <c r="E494" s="6"/>
       <c r="F494" s="13"/>
@@ -20896,7 +20903,7 @@
       <c r="I494" s="13"/>
       <c r="J494" s="7"/>
     </row>
-    <row r="495" spans="1:10" ht="14" customHeight="1">
+    <row r="495" spans="1:10" ht="13.95" customHeight="1">
       <c r="A495" s="11"/>
       <c r="E495" s="6"/>
       <c r="F495" s="13"/>
@@ -20905,7 +20912,7 @@
       <c r="I495" s="13"/>
       <c r="J495" s="7"/>
     </row>
-    <row r="496" spans="1:10" ht="14" customHeight="1">
+    <row r="496" spans="1:10" ht="13.95" customHeight="1">
       <c r="A496" s="11"/>
       <c r="E496" s="6"/>
       <c r="F496" s="13"/>
@@ -20914,7 +20921,7 @@
       <c r="I496" s="13"/>
       <c r="J496" s="7"/>
     </row>
-    <row r="497" spans="1:10" ht="14" customHeight="1">
+    <row r="497" spans="1:10" ht="13.95" customHeight="1">
       <c r="A497" s="11"/>
       <c r="E497" s="6"/>
       <c r="F497" s="13"/>
@@ -20923,7 +20930,7 @@
       <c r="I497" s="13"/>
       <c r="J497" s="7"/>
     </row>
-    <row r="498" spans="1:10" ht="14" customHeight="1">
+    <row r="498" spans="1:10" ht="13.95" customHeight="1">
       <c r="A498" s="11"/>
       <c r="E498" s="6"/>
       <c r="F498" s="13"/>
@@ -20932,7 +20939,7 @@
       <c r="I498" s="13"/>
       <c r="J498" s="7"/>
     </row>
-    <row r="499" spans="1:10" ht="14" customHeight="1">
+    <row r="499" spans="1:10" ht="13.95" customHeight="1">
       <c r="A499" s="11"/>
       <c r="E499" s="6"/>
       <c r="F499" s="13"/>
@@ -20941,7 +20948,7 @@
       <c r="I499" s="13"/>
       <c r="J499" s="13"/>
     </row>
-    <row r="500" spans="1:10" ht="14" customHeight="1">
+    <row r="500" spans="1:10" ht="13.95" customHeight="1">
       <c r="A500" s="11"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -20950,7 +20957,7 @@
       <c r="I500" s="13"/>
       <c r="J500" s="13"/>
     </row>
-    <row r="501" spans="1:10" ht="14" customHeight="1">
+    <row r="501" spans="1:10" ht="13.95" customHeight="1">
       <c r="A501" s="11"/>
       <c r="E501" s="6"/>
       <c r="F501" s="13"/>
@@ -20959,7 +20966,7 @@
       <c r="I501" s="13"/>
       <c r="J501" s="7"/>
     </row>
-    <row r="502" spans="1:10" ht="14" customHeight="1">
+    <row r="502" spans="1:10" ht="13.95" customHeight="1">
       <c r="A502" s="11"/>
       <c r="E502" s="6"/>
       <c r="F502" s="13"/>
@@ -20968,7 +20975,7 @@
       <c r="I502" s="13"/>
       <c r="J502" s="13"/>
     </row>
-    <row r="503" spans="1:10" ht="14" customHeight="1">
+    <row r="503" spans="1:10" ht="13.95" customHeight="1">
       <c r="A503" s="11"/>
       <c r="E503" s="6"/>
       <c r="F503" s="13"/>
@@ -20977,7 +20984,7 @@
       <c r="I503" s="13"/>
       <c r="J503" s="13"/>
     </row>
-    <row r="504" spans="1:10" ht="14" customHeight="1">
+    <row r="504" spans="1:10" ht="13.95" customHeight="1">
       <c r="A504" s="11"/>
       <c r="E504" s="6"/>
       <c r="F504" s="13"/>
@@ -20986,7 +20993,7 @@
       <c r="I504" s="13"/>
       <c r="J504" s="13"/>
     </row>
-    <row r="505" spans="1:10" ht="14" customHeight="1">
+    <row r="505" spans="1:10" ht="13.95" customHeight="1">
       <c r="A505" s="11"/>
       <c r="E505" s="6"/>
       <c r="F505" s="13"/>
@@ -20995,7 +21002,7 @@
       <c r="I505" s="13"/>
       <c r="J505" s="13"/>
     </row>
-    <row r="506" spans="1:10" ht="14" customHeight="1">
+    <row r="506" spans="1:10" ht="13.95" customHeight="1">
       <c r="A506" s="11"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -21004,7 +21011,7 @@
       <c r="I506" s="13"/>
       <c r="J506" s="7"/>
     </row>
-    <row r="507" spans="1:10" ht="14" customHeight="1">
+    <row r="507" spans="1:10" ht="13.95" customHeight="1">
       <c r="A507" s="11"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
@@ -21013,7 +21020,7 @@
       <c r="I507" s="13"/>
       <c r="J507" s="7"/>
     </row>
-    <row r="508" spans="1:10" ht="14" customHeight="1">
+    <row r="508" spans="1:10" ht="13.95" customHeight="1">
       <c r="A508" s="11"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -21022,7 +21029,7 @@
       <c r="I508" s="13"/>
       <c r="J508" s="7"/>
     </row>
-    <row r="509" spans="1:10" ht="14" customHeight="1">
+    <row r="509" spans="1:10" ht="13.95" customHeight="1">
       <c r="A509" s="11"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
@@ -21031,7 +21038,7 @@
       <c r="I509" s="13"/>
       <c r="J509" s="7"/>
     </row>
-    <row r="510" spans="1:10" ht="14" customHeight="1">
+    <row r="510" spans="1:10" ht="13.95" customHeight="1">
       <c r="A510" s="11"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -21040,7 +21047,7 @@
       <c r="I510" s="13"/>
       <c r="J510" s="7"/>
     </row>
-    <row r="511" spans="1:10" ht="14" customHeight="1">
+    <row r="511" spans="1:10" ht="13.95" customHeight="1">
       <c r="A511" s="11"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
@@ -21049,7 +21056,7 @@
       <c r="I511" s="13"/>
       <c r="J511" s="7"/>
     </row>
-    <row r="512" spans="1:10" ht="14" customHeight="1">
+    <row r="512" spans="1:10" ht="13.95" customHeight="1">
       <c r="A512" s="11"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -21058,7 +21065,7 @@
       <c r="I512" s="13"/>
       <c r="J512" s="7"/>
     </row>
-    <row r="513" spans="1:10" ht="14" customHeight="1">
+    <row r="513" spans="1:10" ht="13.95" customHeight="1">
       <c r="A513" s="11"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
@@ -21067,7 +21074,7 @@
       <c r="I513" s="13"/>
       <c r="J513" s="7"/>
     </row>
-    <row r="514" spans="1:10" ht="14" customHeight="1">
+    <row r="514" spans="1:10" ht="13.95" customHeight="1">
       <c r="A514" s="11"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -21076,7 +21083,7 @@
       <c r="I514" s="13"/>
       <c r="J514" s="7"/>
     </row>
-    <row r="515" spans="1:10" ht="14" customHeight="1">
+    <row r="515" spans="1:10" ht="13.95" customHeight="1">
       <c r="A515" s="11"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
@@ -21085,7 +21092,7 @@
       <c r="I515" s="13"/>
       <c r="J515" s="7"/>
     </row>
-    <row r="516" spans="1:10" ht="14" customHeight="1">
+    <row r="516" spans="1:10" ht="13.95" customHeight="1">
       <c r="A516" s="11"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -21094,7 +21101,7 @@
       <c r="I516" s="13"/>
       <c r="J516" s="7"/>
     </row>
-    <row r="517" spans="1:10" ht="14" customHeight="1">
+    <row r="517" spans="1:10" ht="13.95" customHeight="1">
       <c r="J517" s="7"/>
     </row>
   </sheetData>
@@ -21110,8 +21117,6 @@
   <conditionalFormatting sqref="A341:A516">
     <cfRule type="duplicateValues" dxfId="2" priority="124"/>
     <cfRule type="duplicateValues" dxfId="1" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A341:A516">
     <cfRule type="duplicateValues" dxfId="0" priority="128"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21135,10 +21140,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="24" customWidth="1"/>
-    <col min="2" max="2" width="149.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.44140625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Statistical analyses/data/faeces_sample_database.xlsx
+++ b/Statistical analyses/data/faeces_sample_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/crinan_jarrett_vogelwarte_ch/Documents/Cocoa Lab/HowToMetabarcoding/Statistical analyses/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cj\Documents\GitHub\HowToMetabarcoding\Statistical analyses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3EDDAE22-CB89-4116-BFA6-953286DABB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008FF250-2B32-4C15-8698-ED4A3A6255E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD20B7F-5E12-47FD-AE32-AFC3DCA75D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samples!$A$1:$FK$519</definedName>
     <definedName name="Effort">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1074,10 +1074,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2161,7 +2157,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.95" customHeight="1"/>
